--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_24_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_24_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373013.272869503</v>
+        <v>366704.3225588634</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5113862.337487244</v>
+        <v>5113862.337487245</v>
       </c>
     </row>
     <row r="11">
@@ -664,16 +664,16 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>18.09538596151556</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>18.32408287237587</v>
       </c>
       <c r="G2" t="n">
-        <v>3.994857438866504</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>5.200981756320542</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -782,19 +782,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>12.56209233042348</v>
+        <v>12.56209233042347</v>
       </c>
       <c r="R3" t="n">
         <v>20.16697784598549</v>
       </c>
       <c r="S3" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>5.200981756320528</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.15723525158589</v>
+        <v>32.33503862605232</v>
       </c>
       <c r="C5" t="n">
         <v>6.023344779862555</v>
@@ -910,16 +910,16 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>42.15723525158589</v>
+        <v>42.15723525158528</v>
       </c>
       <c r="H5" t="n">
-        <v>38.16379644120901</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>8.586601949475508</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>7.665974978119564</v>
+        <v>7.66597497811982</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>39.39939111726506</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42.15723525158589</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>42.15723525158589</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>42.15723525158589</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>35.62293078470378</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>42.15723525158528</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>42.15723525158528</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.25560419681796</v>
       </c>
       <c r="J6" t="n">
-        <v>12.81233141576496</v>
+        <v>12.81233141576508</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.598461663894618</v>
+        <v>4.598461663894781</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.72129972993725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6314291840158297</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.6314291840156687</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>1.02943428098897</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>58.59343845177214</v>
+        <v>40.88678115096495</v>
       </c>
       <c r="F8" t="n">
         <v>58.59343845177214</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>53.48683192388534</v>
       </c>
       <c r="J8" t="n">
         <v>2.872130654231427</v>
@@ -1180,7 +1180,7 @@
         <v>0.3951920554342081</v>
       </c>
       <c r="R8" t="n">
-        <v>35.17003094995921</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1220,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>44.35314038305939</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>31.42527100086661</v>
       </c>
       <c r="S9" t="n">
-        <v>58.59343845177214</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>58.59343845177214</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>44.35314038305939</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>7.935091547195987</v>
+        <v>4.489106094177907</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>3.445985453018082</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>31.90177044380172</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>102.2545262986572</v>
       </c>
       <c r="T11" t="n">
-        <v>213.8998645763261</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>219.5565574740965</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="V11" t="n">
-        <v>219.5565574740965</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="W11" t="n">
-        <v>96.78758242229725</v>
+        <v>59.2291190807253</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>32.50336319297317</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>105.1765168157536</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>62.85721528991137</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>14.70128436951476</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,13 +1502,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>185.5546077609687</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>17.55899135242099</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.150849970123446</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.3856723961843</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>125.6846119776726</v>
+        <v>173.6621429915595</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>59.22911908072525</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>219.5565574740965</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="G14" t="n">
-        <v>219.5565574740965</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>219.5565574740965</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>31.90177044380174</v>
+        <v>31.90177044380172</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>102.2545262986572</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>161.4836453793825</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>32.50336319297317</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>132.6551205385437</v>
@@ -1697,16 +1697,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>105.1765168157536</v>
+        <v>75.26152110158934</v>
       </c>
       <c r="H15" t="n">
-        <v>62.85721528991137</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>14.70128436951476</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>93.09630611656611</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1770,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>31.91942736361676</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>9.150849970123446</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.3856723961843</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>125.6846119776726</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>193.3854158231842</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>213.8998645763261</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>219.5565574740965</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>199.0421087209544</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>219.5565574740965</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>219.5565574740966</v>
       </c>
     </row>
     <row r="18">
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>60.72447525855337</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>59.95034283577461</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>12.82588865527177</v>
+        <v>12.82588865527175</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>93.09630611656611</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>191.2211343439802</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>191.2211343439805</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>193.3854158231841</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>219.5565574740964</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>96.78758242229762</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>219.5565574740964</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="Y20" t="n">
-        <v>219.5565574740964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2213,13 +2213,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>72.77623149104633</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>28.2202428770224</v>
       </c>
       <c r="W21" t="n">
         <v>211.1008365810345</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="22">
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>21.83869563007983</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2283,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.150849970123453</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6621429915595</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>8.408141382297213</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T23" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.268209367414629</v>
+        <v>134.6005855621436</v>
       </c>
     </row>
     <row r="24">
@@ -2408,7 +2408,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>113.6597980399019</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V24" t="n">
         <v>211.5744117368965</v>
@@ -2462,10 +2462,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X24" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>157.8079400398083</v>
+        <v>57.98843193716738</v>
       </c>
     </row>
     <row r="25">
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>94.83868680479782</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>264.5539824275544</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2563,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>360.8702137964717</v>
+        <v>304.1501289390972</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
-        <v>0.410366858644201</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>152.9662577680471</v>
+        <v>37.64843842388991</v>
       </c>
       <c r="U27" t="n">
         <v>195.2992474636072</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>97.88526065198775</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>190.5764537269601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>58.17399378806828</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>210.2775313912475</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>150.5926824052236</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>138.9000023092308</v>
+        <v>107.1982119060131</v>
       </c>
       <c r="C30" t="n">
         <v>132.6551205385437</v>
@@ -2879,10 +2879,10 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E30" t="n">
-        <v>37.64843842388981</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y30" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.86499572513522</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>19.82453536339339</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>139.2678442953623</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,22 +3031,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>124.8051328684615</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>102.4582976525699</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3113,19 +3113,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
-        <v>115.7281862028015</v>
+        <v>59.61140262348637</v>
       </c>
       <c r="E33" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F33" t="n">
-        <v>62.10223515728644</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>195.2992474636072</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>143.8300896984042</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.27009235220248</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>39.69593104582557</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>167.1934341018228</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>10.63812213477854</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>132.28287632731</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>115.9312370766873</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>402.4235511641288</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>115.7281862028015</v>
+        <v>65.11845806900632</v>
       </c>
       <c r="E36" t="n">
-        <v>17.33730119438647</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>195.2992474636072</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>139.2678442953623</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.27009235220248</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>39.69593104582557</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>106.8837869576217</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>55.51465019623038</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>195.402229421474</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>277.6828714803801</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,22 +3584,22 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>84.8724997021109</v>
+        <v>25.19520637786781</v>
       </c>
       <c r="T39" t="n">
-        <v>143.2655804566728</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V39" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y39" t="n">
         <v>157.8079400398083</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>128.1442560743469</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.27009235220248</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>143.830089698404</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>34.80500672459161</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>254.3124908149276</v>
       </c>
       <c r="V41" t="n">
-        <v>274.6073493651197</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3824,13 +3824,13 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>104.7337711575492</v>
@@ -3869,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V42" t="n">
-        <v>54.04893327214948</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>211.1008365810345</v>
+        <v>18.59854244714031</v>
       </c>
       <c r="X42" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>157.8079400398083</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>77.25210489339138</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>237.1313187617017</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>257.0993956451426</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>19.06017739731121</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H44" t="n">
         <v>285.0899515417858</v>
@@ -4030,7 +4030,7 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T44" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4064,16 +4064,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
-        <v>37.64843842388981</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -4121,7 +4121,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
-        <v>174.5627220424961</v>
+        <v>124.9075245970696</v>
       </c>
       <c r="Y45" t="n">
         <v>157.8079400398083</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>264.5539824275544</v>
+        <v>255.7849588823068</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57.30074149471537</v>
+        <v>57.3007414947154</v>
       </c>
       <c r="C2" t="n">
-        <v>51.21655484838956</v>
+        <v>51.21655484838958</v>
       </c>
       <c r="D2" t="n">
-        <v>32.93838721049505</v>
+        <v>50.79302898185419</v>
       </c>
       <c r="E2" t="n">
-        <v>22.63857576779581</v>
+        <v>40.49321753915495</v>
       </c>
       <c r="F2" t="n">
-        <v>5.648567761887429</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="G2" t="n">
         <v>1.613358227678839</v>
@@ -4336,46 +4336,46 @@
         <v>1.613358227678839</v>
       </c>
       <c r="L2" t="n">
-        <v>8.029492740843498</v>
+        <v>8.029492740843512</v>
       </c>
       <c r="M2" t="n">
-        <v>27.99480080836913</v>
+        <v>27.99480080836914</v>
       </c>
       <c r="N2" t="n">
-        <v>47.96010887589476</v>
+        <v>47.96010887589478</v>
       </c>
       <c r="O2" t="n">
-        <v>63.48151711880078</v>
+        <v>63.48151711880081</v>
       </c>
       <c r="P2" t="n">
-        <v>63.48151711880078</v>
+        <v>63.48151711880081</v>
       </c>
       <c r="Q2" t="n">
-        <v>63.48151711880078</v>
+        <v>63.48151711880081</v>
       </c>
       <c r="R2" t="n">
-        <v>63.48151711880078</v>
+        <v>63.48151711880081</v>
       </c>
       <c r="S2" t="n">
-        <v>63.48151711880078</v>
+        <v>63.48151711880081</v>
       </c>
       <c r="T2" t="n">
-        <v>63.48151711880078</v>
+        <v>63.48151711880081</v>
       </c>
       <c r="U2" t="n">
-        <v>63.48151711880078</v>
+        <v>63.48151711880081</v>
       </c>
       <c r="V2" t="n">
-        <v>63.48151711880078</v>
+        <v>63.48151711880081</v>
       </c>
       <c r="W2" t="n">
-        <v>63.48151711880078</v>
+        <v>63.48151711880081</v>
       </c>
       <c r="X2" t="n">
-        <v>63.48151711880078</v>
+        <v>63.48151711880081</v>
       </c>
       <c r="Y2" t="n">
-        <v>63.48151711880078</v>
+        <v>63.48151711880081</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.613358227678839</v>
+        <v>47.60824453908441</v>
       </c>
       <c r="C3" t="n">
-        <v>1.613358227678839</v>
+        <v>47.60824453908441</v>
       </c>
       <c r="D3" t="n">
-        <v>1.613358227678839</v>
+        <v>47.60824453908441</v>
       </c>
       <c r="E3" t="n">
-        <v>1.613358227678839</v>
+        <v>27.23755984616978</v>
       </c>
       <c r="F3" t="n">
-        <v>1.613358227678839</v>
+        <v>6.866875153255144</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613358227678839</v>
+        <v>6.866875153255144</v>
       </c>
       <c r="H3" t="n">
-        <v>1.613358227678839</v>
+        <v>6.866875153255144</v>
       </c>
       <c r="I3" t="n">
-        <v>1.613358227678839</v>
+        <v>6.866875153255144</v>
       </c>
       <c r="J3" t="n">
         <v>1.613358227678839</v>
@@ -4415,46 +4415,46 @@
         <v>1.613358227678839</v>
       </c>
       <c r="L3" t="n">
-        <v>9.132329156849885</v>
+        <v>9.132329156849856</v>
       </c>
       <c r="M3" t="n">
-        <v>29.09763722437551</v>
+        <v>29.09763722437549</v>
       </c>
       <c r="N3" t="n">
-        <v>49.06294529190114</v>
+        <v>49.06294529190112</v>
       </c>
       <c r="O3" t="n">
-        <v>69.02825335942677</v>
+        <v>69.02825335942674</v>
       </c>
       <c r="P3" t="n">
         <v>80.66791138394194</v>
       </c>
       <c r="Q3" t="n">
-        <v>67.97892923199903</v>
+        <v>67.97892923199905</v>
       </c>
       <c r="R3" t="n">
-        <v>47.6082445390844</v>
+        <v>47.60824453908441</v>
       </c>
       <c r="S3" t="n">
-        <v>27.23755984616976</v>
+        <v>47.60824453908441</v>
       </c>
       <c r="T3" t="n">
-        <v>6.86687515325513</v>
+        <v>47.60824453908441</v>
       </c>
       <c r="U3" t="n">
-        <v>1.613358227678839</v>
+        <v>47.60824453908441</v>
       </c>
       <c r="V3" t="n">
-        <v>1.613358227678839</v>
+        <v>47.60824453908441</v>
       </c>
       <c r="W3" t="n">
-        <v>1.613358227678839</v>
+        <v>47.60824453908441</v>
       </c>
       <c r="X3" t="n">
-        <v>1.613358227678839</v>
+        <v>47.60824453908441</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.613358227678839</v>
+        <v>47.60824453908441</v>
       </c>
     </row>
     <row r="4">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>118.3024660268431</v>
+        <v>88.42651199478838</v>
       </c>
       <c r="C5" t="n">
-        <v>112.2182793805173</v>
+        <v>82.34232534846257</v>
       </c>
       <c r="D5" t="n">
-        <v>111.7947535139819</v>
+        <v>81.91879948192717</v>
       </c>
       <c r="E5" t="n">
-        <v>101.4949420712826</v>
+        <v>71.61898803922793</v>
       </c>
       <c r="F5" t="n">
-        <v>84.50493406537424</v>
+        <v>54.62898003331954</v>
       </c>
       <c r="G5" t="n">
-        <v>41.92186815468143</v>
+        <v>12.04591412262734</v>
       </c>
       <c r="H5" t="n">
-        <v>3.372578820126871</v>
+        <v>12.04591412262734</v>
       </c>
       <c r="I5" t="n">
-        <v>3.372578820126871</v>
+        <v>12.04591412262734</v>
       </c>
       <c r="J5" t="n">
-        <v>3.372578820126871</v>
+        <v>3.372578820126822</v>
       </c>
       <c r="K5" t="n">
-        <v>11.18127913917038</v>
+        <v>11.18127913917009</v>
       </c>
       <c r="L5" t="n">
-        <v>35.81387592992448</v>
+        <v>35.81387592992381</v>
       </c>
       <c r="M5" t="n">
-        <v>76.04850821778041</v>
+        <v>76.04850821777931</v>
       </c>
       <c r="N5" t="n">
-        <v>117.7841711168504</v>
+        <v>117.7841711168487</v>
       </c>
       <c r="O5" t="n">
-        <v>152.7550285847502</v>
+        <v>152.7550285847481</v>
       </c>
       <c r="P5" t="n">
-        <v>168.6289410063436</v>
+        <v>168.6289410063411</v>
       </c>
       <c r="Q5" t="n">
-        <v>160.8855319375359</v>
+        <v>160.8855319375332</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8855319375359</v>
+        <v>121.088167172619</v>
       </c>
       <c r="S5" t="n">
-        <v>160.8855319375359</v>
+        <v>121.088167172619</v>
       </c>
       <c r="T5" t="n">
-        <v>160.8855319375359</v>
+        <v>121.088167172619</v>
       </c>
       <c r="U5" t="n">
-        <v>160.8855319375359</v>
+        <v>121.088167172619</v>
       </c>
       <c r="V5" t="n">
-        <v>160.8855319375359</v>
+        <v>121.088167172619</v>
       </c>
       <c r="W5" t="n">
-        <v>160.8855319375359</v>
+        <v>121.088167172619</v>
       </c>
       <c r="X5" t="n">
-        <v>160.8855319375359</v>
+        <v>121.088167172619</v>
       </c>
       <c r="Y5" t="n">
-        <v>160.8855319375359</v>
+        <v>121.088167172619</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101.4804595463256</v>
+        <v>163.9840302347302</v>
       </c>
       <c r="C6" t="n">
-        <v>58.89739363563278</v>
+        <v>163.9840302347302</v>
       </c>
       <c r="D6" t="n">
-        <v>16.31432772493996</v>
+        <v>163.9840302347302</v>
       </c>
       <c r="E6" t="n">
-        <v>16.31432772493996</v>
+        <v>128.0012718663426</v>
       </c>
       <c r="F6" t="n">
-        <v>16.31432772493996</v>
+        <v>85.41820595565038</v>
       </c>
       <c r="G6" t="n">
-        <v>16.31432772493996</v>
+        <v>42.83514004495818</v>
       </c>
       <c r="H6" t="n">
-        <v>16.31432772493996</v>
+        <v>42.83514004495818</v>
       </c>
       <c r="I6" t="n">
-        <v>16.31432772493996</v>
+        <v>16.31432772494004</v>
       </c>
       <c r="J6" t="n">
-        <v>3.372578820126871</v>
+        <v>3.372578820126822</v>
       </c>
       <c r="K6" t="n">
-        <v>13.34595087713267</v>
+        <v>13.34595087713241</v>
       </c>
       <c r="L6" t="n">
-        <v>45.51700956617154</v>
+        <v>45.51700956617101</v>
       </c>
       <c r="M6" t="n">
-        <v>87.25267246524157</v>
+        <v>64.50614547579278</v>
       </c>
       <c r="N6" t="n">
-        <v>106.2418083748641</v>
+        <v>106.2418083748622</v>
       </c>
       <c r="O6" t="n">
-        <v>145.1952565098747</v>
+        <v>145.1952565098725</v>
       </c>
       <c r="P6" t="n">
-        <v>168.6289410063436</v>
+        <v>168.6289410063411</v>
       </c>
       <c r="Q6" t="n">
-        <v>163.9840302347328</v>
+        <v>163.9840302347302</v>
       </c>
       <c r="R6" t="n">
-        <v>163.9840302347328</v>
+        <v>163.9840302347302</v>
       </c>
       <c r="S6" t="n">
-        <v>163.9840302347328</v>
+        <v>163.9840302347302</v>
       </c>
       <c r="T6" t="n">
-        <v>163.9840302347328</v>
+        <v>163.9840302347302</v>
       </c>
       <c r="U6" t="n">
-        <v>163.9840302347328</v>
+        <v>163.9840302347302</v>
       </c>
       <c r="V6" t="n">
-        <v>163.9840302347328</v>
+        <v>163.9840302347302</v>
       </c>
       <c r="W6" t="n">
-        <v>163.9840302347328</v>
+        <v>163.9840302347302</v>
       </c>
       <c r="X6" t="n">
-        <v>163.9840302347328</v>
+        <v>163.9840302347302</v>
       </c>
       <c r="Y6" t="n">
-        <v>144.0635254570184</v>
+        <v>163.9840302347302</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.010386076708517</v>
+        <v>3.372578820126822</v>
       </c>
       <c r="C7" t="n">
-        <v>4.010386076708517</v>
+        <v>3.372578820126822</v>
       </c>
       <c r="D7" t="n">
-        <v>4.010386076708517</v>
+        <v>3.372578820126822</v>
       </c>
       <c r="E7" t="n">
-        <v>4.010386076708517</v>
+        <v>3.372578820126822</v>
       </c>
       <c r="F7" t="n">
-        <v>4.010386076708517</v>
+        <v>3.372578820126822</v>
       </c>
       <c r="G7" t="n">
-        <v>4.010386076708517</v>
+        <v>3.372578820126822</v>
       </c>
       <c r="H7" t="n">
-        <v>4.010386076708517</v>
+        <v>3.372578820126822</v>
       </c>
       <c r="I7" t="n">
-        <v>4.010386076708517</v>
+        <v>3.372578820126822</v>
       </c>
       <c r="J7" t="n">
-        <v>4.010386076708517</v>
+        <v>3.372578820126822</v>
       </c>
       <c r="K7" t="n">
-        <v>4.010386076708517</v>
+        <v>3.372578820126822</v>
       </c>
       <c r="L7" t="n">
-        <v>4.010386076708517</v>
+        <v>3.372578820126822</v>
       </c>
       <c r="M7" t="n">
-        <v>3.372578820126871</v>
+        <v>3.372578820126822</v>
       </c>
       <c r="N7" t="n">
-        <v>4.010386076708517</v>
+        <v>4.010386076708306</v>
       </c>
       <c r="O7" t="n">
-        <v>4.010386076708517</v>
+        <v>4.010386076708306</v>
       </c>
       <c r="P7" t="n">
-        <v>4.010386076708517</v>
+        <v>4.010386076708306</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.010386076708517</v>
+        <v>4.010386076708306</v>
       </c>
       <c r="R7" t="n">
-        <v>4.010386076708517</v>
+        <v>3.372578820126822</v>
       </c>
       <c r="S7" t="n">
-        <v>4.010386076708517</v>
+        <v>3.372578820126822</v>
       </c>
       <c r="T7" t="n">
-        <v>4.010386076708517</v>
+        <v>3.372578820126822</v>
       </c>
       <c r="U7" t="n">
-        <v>4.010386076708517</v>
+        <v>3.372578820126822</v>
       </c>
       <c r="V7" t="n">
-        <v>4.010386076708517</v>
+        <v>3.372578820126822</v>
       </c>
       <c r="W7" t="n">
-        <v>4.010386076708517</v>
+        <v>3.372578820126822</v>
       </c>
       <c r="X7" t="n">
-        <v>4.010386076708517</v>
+        <v>3.372578820126822</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.010386076708517</v>
+        <v>3.372578820126822</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>192.2685105007876</v>
+        <v>227.7937942886252</v>
       </c>
       <c r="C8" t="n">
-        <v>186.1843238544618</v>
+        <v>221.7096076422994</v>
       </c>
       <c r="D8" t="n">
-        <v>185.1444912474022</v>
+        <v>221.286081775764</v>
       </c>
       <c r="E8" t="n">
-        <v>125.9591998819758</v>
+        <v>179.9863028353953</v>
       </c>
       <c r="F8" t="n">
-        <v>66.77390851654943</v>
+        <v>120.801011469969</v>
       </c>
       <c r="G8" t="n">
-        <v>7.588617151123011</v>
+        <v>61.61572010454255</v>
       </c>
       <c r="H8" t="n">
-        <v>7.588617151123011</v>
+        <v>61.61572010454255</v>
       </c>
       <c r="I8" t="n">
         <v>7.588617151123011</v>
@@ -4807,10 +4807,10 @@
         <v>4.687475076141772</v>
       </c>
       <c r="K8" t="n">
-        <v>20.97504143141151</v>
+        <v>20.97504143141154</v>
       </c>
       <c r="L8" t="n">
-        <v>56.12642129272575</v>
+        <v>56.12642129272579</v>
       </c>
       <c r="M8" t="n">
         <v>108.0652264990963</v>
@@ -4828,28 +4828,28 @@
         <v>233.9745699127106</v>
       </c>
       <c r="R8" t="n">
-        <v>198.449286124873</v>
+        <v>233.9745699127106</v>
       </c>
       <c r="S8" t="n">
-        <v>198.449286124873</v>
+        <v>233.9745699127106</v>
       </c>
       <c r="T8" t="n">
-        <v>198.449286124873</v>
+        <v>233.9745699127106</v>
       </c>
       <c r="U8" t="n">
-        <v>198.449286124873</v>
+        <v>233.9745699127106</v>
       </c>
       <c r="V8" t="n">
-        <v>198.449286124873</v>
+        <v>233.9745699127106</v>
       </c>
       <c r="W8" t="n">
-        <v>198.449286124873</v>
+        <v>233.9745699127106</v>
       </c>
       <c r="X8" t="n">
-        <v>198.449286124873</v>
+        <v>233.9745699127106</v>
       </c>
       <c r="Y8" t="n">
-        <v>198.449286124873</v>
+        <v>233.9745699127106</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39.45932119348221</v>
+        <v>202.6310558264152</v>
       </c>
       <c r="C9" t="n">
-        <v>39.45932119348221</v>
+        <v>202.6310558264152</v>
       </c>
       <c r="D9" t="n">
-        <v>39.45932119348221</v>
+        <v>202.6310558264152</v>
       </c>
       <c r="E9" t="n">
-        <v>39.45932119348221</v>
+        <v>157.829903924335</v>
       </c>
       <c r="F9" t="n">
-        <v>39.45932119348221</v>
+        <v>98.64461255890862</v>
       </c>
       <c r="G9" t="n">
         <v>39.45932119348221</v>
@@ -4910,25 +4910,25 @@
         <v>202.6310558264152</v>
       </c>
       <c r="S9" t="n">
-        <v>143.4457644609888</v>
+        <v>202.6310558264152</v>
       </c>
       <c r="T9" t="n">
-        <v>84.2604730955624</v>
+        <v>202.6310558264152</v>
       </c>
       <c r="U9" t="n">
-        <v>39.45932119348221</v>
+        <v>202.6310558264152</v>
       </c>
       <c r="V9" t="n">
-        <v>39.45932119348221</v>
+        <v>202.6310558264152</v>
       </c>
       <c r="W9" t="n">
-        <v>39.45932119348221</v>
+        <v>202.6310558264152</v>
       </c>
       <c r="X9" t="n">
-        <v>39.45932119348221</v>
+        <v>202.6310558264152</v>
       </c>
       <c r="Y9" t="n">
-        <v>39.45932119348221</v>
+        <v>202.6310558264152</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.70271906320843</v>
+        <v>9.221925676321476</v>
       </c>
       <c r="C10" t="n">
-        <v>12.70271906320843</v>
+        <v>9.221925676321476</v>
       </c>
       <c r="D10" t="n">
-        <v>12.70271906320843</v>
+        <v>9.221925676321476</v>
       </c>
       <c r="E10" t="n">
-        <v>12.70271906320843</v>
+        <v>9.221925676321476</v>
       </c>
       <c r="F10" t="n">
-        <v>12.70271906320843</v>
+        <v>9.221925676321476</v>
       </c>
       <c r="G10" t="n">
-        <v>12.70271906320843</v>
+        <v>9.221925676321476</v>
       </c>
       <c r="H10" t="n">
-        <v>12.70271906320843</v>
+        <v>9.221925676321476</v>
       </c>
       <c r="I10" t="n">
-        <v>12.70271906320843</v>
+        <v>9.221925676321476</v>
       </c>
       <c r="J10" t="n">
-        <v>12.70271906320843</v>
+        <v>9.221925676321476</v>
       </c>
       <c r="K10" t="n">
         <v>4.687475076141772</v>
@@ -4977,37 +4977,37 @@
         <v>12.70271906320843</v>
       </c>
       <c r="O10" t="n">
-        <v>12.70271906320843</v>
+        <v>9.221925676321476</v>
       </c>
       <c r="P10" t="n">
-        <v>12.70271906320843</v>
+        <v>9.221925676321476</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.70271906320843</v>
+        <v>9.221925676321476</v>
       </c>
       <c r="R10" t="n">
-        <v>12.70271906320843</v>
+        <v>9.221925676321476</v>
       </c>
       <c r="S10" t="n">
-        <v>12.70271906320843</v>
+        <v>9.221925676321476</v>
       </c>
       <c r="T10" t="n">
-        <v>12.70271906320843</v>
+        <v>9.221925676321476</v>
       </c>
       <c r="U10" t="n">
-        <v>12.70271906320843</v>
+        <v>9.221925676321476</v>
       </c>
       <c r="V10" t="n">
-        <v>12.70271906320843</v>
+        <v>9.221925676321476</v>
       </c>
       <c r="W10" t="n">
-        <v>12.70271906320843</v>
+        <v>9.221925676321476</v>
       </c>
       <c r="X10" t="n">
-        <v>12.70271906320843</v>
+        <v>9.221925676321476</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.70271906320843</v>
+        <v>9.221925676321476</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17.56452459792772</v>
+        <v>271.5628356261079</v>
       </c>
       <c r="C11" t="n">
-        <v>17.56452459792772</v>
+        <v>271.5628356261079</v>
       </c>
       <c r="D11" t="n">
-        <v>17.56452459792772</v>
+        <v>271.5628356261079</v>
       </c>
       <c r="E11" t="n">
-        <v>17.56452459792772</v>
+        <v>271.5628356261079</v>
       </c>
       <c r="F11" t="n">
-        <v>17.56452459792772</v>
+        <v>49.7885351472224</v>
       </c>
       <c r="G11" t="n">
-        <v>17.56452459792772</v>
+        <v>49.7885351472224</v>
       </c>
       <c r="H11" t="n">
-        <v>17.56452459792772</v>
+        <v>49.7885351472224</v>
       </c>
       <c r="I11" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="J11" t="n">
-        <v>61.76566646422711</v>
+        <v>61.76566646422724</v>
       </c>
       <c r="K11" t="n">
-        <v>148.5608200474254</v>
+        <v>148.5608200474255</v>
       </c>
       <c r="L11" t="n">
-        <v>271.1830965723311</v>
+        <v>271.1830965723312</v>
       </c>
       <c r="M11" t="n">
-        <v>420.4501281543862</v>
+        <v>420.4501281543865</v>
       </c>
       <c r="N11" t="n">
-        <v>574.0010487547434</v>
+        <v>574.0010487547437</v>
       </c>
       <c r="O11" t="n">
-        <v>713.5940480809675</v>
+        <v>713.5940480809679</v>
       </c>
       <c r="P11" t="n">
-        <v>818.7605380598424</v>
+        <v>818.7605380598427</v>
       </c>
       <c r="Q11" t="n">
-        <v>878.2262298963859</v>
+        <v>878.2262298963864</v>
       </c>
       <c r="R11" t="n">
-        <v>878.2262298963859</v>
+        <v>878.2262298963864</v>
       </c>
       <c r="S11" t="n">
-        <v>774.938829594712</v>
+        <v>774.9388295947125</v>
       </c>
       <c r="T11" t="n">
-        <v>558.8783603256957</v>
+        <v>774.9388295947125</v>
       </c>
       <c r="U11" t="n">
-        <v>337.1040598468103</v>
+        <v>553.164529115827</v>
       </c>
       <c r="V11" t="n">
-        <v>115.3297593679249</v>
+        <v>331.3902286369415</v>
       </c>
       <c r="W11" t="n">
-        <v>17.56452459792772</v>
+        <v>271.5628356261079</v>
       </c>
       <c r="X11" t="n">
-        <v>17.56452459792772</v>
+        <v>271.5628356261079</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.56452459792772</v>
+        <v>271.5628356261079</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>682.4902741771609</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="C12" t="n">
-        <v>548.4952029261066</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="D12" t="n">
-        <v>431.598045145499</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="E12" t="n">
-        <v>311.105229137827</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="F12" t="n">
-        <v>202.1453493203315</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="G12" t="n">
-        <v>95.90644344583291</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="H12" t="n">
-        <v>32.41430678935677</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="I12" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="J12" t="n">
-        <v>36.26919386777749</v>
+        <v>36.26919386777751</v>
       </c>
       <c r="K12" t="n">
-        <v>99.89115689943324</v>
+        <v>99.89115689943331</v>
       </c>
       <c r="L12" t="n">
-        <v>204.1993668012283</v>
+        <v>204.1993668012285</v>
       </c>
       <c r="M12" t="n">
-        <v>333.7616594659747</v>
+        <v>333.761659465975</v>
       </c>
       <c r="N12" t="n">
-        <v>472.5885816838006</v>
+        <v>472.588581683801</v>
       </c>
       <c r="O12" t="n">
-        <v>590.5890764169</v>
+        <v>590.5890764169004</v>
       </c>
       <c r="P12" t="n">
-        <v>677.4649847190649</v>
+        <v>677.4649847190653</v>
       </c>
       <c r="Q12" t="n">
-        <v>715.3219541700631</v>
+        <v>715.3219541700636</v>
       </c>
       <c r="R12" t="n">
-        <v>715.3219541700631</v>
+        <v>715.3219541700636</v>
       </c>
       <c r="S12" t="n">
-        <v>715.3219541700631</v>
+        <v>715.3219541700636</v>
       </c>
       <c r="T12" t="n">
-        <v>715.3219541700631</v>
+        <v>559.0079809687318</v>
       </c>
       <c r="U12" t="n">
-        <v>715.3219541700631</v>
+        <v>371.5790842404806</v>
       </c>
       <c r="V12" t="n">
-        <v>715.3219541700631</v>
+        <v>157.8675572335144</v>
       </c>
       <c r="W12" t="n">
-        <v>715.3219541700631</v>
+        <v>157.8675572335144</v>
       </c>
       <c r="X12" t="n">
-        <v>715.3219541700631</v>
+        <v>157.8675572335144</v>
       </c>
       <c r="Y12" t="n">
-        <v>715.3219541700631</v>
+        <v>157.8675572335144</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17.56452459792772</v>
+        <v>35.30087949936308</v>
       </c>
       <c r="C13" t="n">
-        <v>17.56452459792772</v>
+        <v>35.30087949936308</v>
       </c>
       <c r="D13" t="n">
-        <v>17.56452459792772</v>
+        <v>35.30087949936308</v>
       </c>
       <c r="E13" t="n">
-        <v>17.56452459792772</v>
+        <v>35.30087949936308</v>
       </c>
       <c r="F13" t="n">
-        <v>17.56452459792772</v>
+        <v>35.30087949936308</v>
       </c>
       <c r="G13" t="n">
-        <v>17.56452459792772</v>
+        <v>35.30087949936308</v>
       </c>
       <c r="H13" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="I13" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="J13" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="K13" t="n">
-        <v>37.55032788682527</v>
+        <v>37.55032788682529</v>
       </c>
       <c r="L13" t="n">
-        <v>75.23712329476733</v>
+        <v>75.23712329476737</v>
       </c>
       <c r="M13" t="n">
-        <v>116.2921695945572</v>
+        <v>116.2921695945573</v>
       </c>
       <c r="N13" t="n">
-        <v>159.5533166477875</v>
+        <v>159.5533166477877</v>
       </c>
       <c r="O13" t="n">
-        <v>191.2851869593637</v>
+        <v>191.2851869593638</v>
       </c>
       <c r="P13" t="n">
-        <v>210.7171855514432</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="Q13" t="n">
-        <v>201.4739027533387</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="R13" t="n">
-        <v>144.5186781107283</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="S13" t="n">
-        <v>17.56452459792772</v>
+        <v>35.30087949936308</v>
       </c>
       <c r="T13" t="n">
-        <v>17.56452459792772</v>
+        <v>35.30087949936308</v>
       </c>
       <c r="U13" t="n">
-        <v>17.56452459792772</v>
+        <v>35.30087949936308</v>
       </c>
       <c r="V13" t="n">
-        <v>17.56452459792772</v>
+        <v>35.30087949936308</v>
       </c>
       <c r="W13" t="n">
-        <v>17.56452459792772</v>
+        <v>35.30087949936308</v>
       </c>
       <c r="X13" t="n">
-        <v>17.56452459792772</v>
+        <v>35.30087949936308</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.56452459792772</v>
+        <v>35.30087949936308</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>774.938829594712</v>
+        <v>271.5628356261079</v>
       </c>
       <c r="C14" t="n">
-        <v>774.938829594712</v>
+        <v>271.5628356261079</v>
       </c>
       <c r="D14" t="n">
-        <v>774.938829594712</v>
+        <v>271.5628356261079</v>
       </c>
       <c r="E14" t="n">
-        <v>715.1114365838785</v>
+        <v>271.5628356261079</v>
       </c>
       <c r="F14" t="n">
-        <v>493.3371361049931</v>
+        <v>49.7885351472224</v>
       </c>
       <c r="G14" t="n">
-        <v>271.5628356261078</v>
+        <v>49.7885351472224</v>
       </c>
       <c r="H14" t="n">
         <v>49.7885351472224</v>
       </c>
       <c r="I14" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="J14" t="n">
-        <v>61.76566646422715</v>
+        <v>61.76566646422724</v>
       </c>
       <c r="K14" t="n">
-        <v>148.5608200474254</v>
+        <v>148.5608200474255</v>
       </c>
       <c r="L14" t="n">
-        <v>271.1830965723312</v>
+        <v>271.1830965723314</v>
       </c>
       <c r="M14" t="n">
-        <v>420.4501281543864</v>
+        <v>420.4501281543865</v>
       </c>
       <c r="N14" t="n">
-        <v>574.0010487547436</v>
+        <v>574.0010487547437</v>
       </c>
       <c r="O14" t="n">
-        <v>713.5940480809677</v>
+        <v>713.5940480809679</v>
       </c>
       <c r="P14" t="n">
-        <v>818.7605380598422</v>
+        <v>818.7605380598427</v>
       </c>
       <c r="Q14" t="n">
-        <v>878.2262298963859</v>
+        <v>878.2262298963865</v>
       </c>
       <c r="R14" t="n">
-        <v>878.2262298963859</v>
+        <v>878.2262298963865</v>
       </c>
       <c r="S14" t="n">
-        <v>774.938829594712</v>
+        <v>878.2262298963865</v>
       </c>
       <c r="T14" t="n">
-        <v>774.938829594712</v>
+        <v>715.1114365838789</v>
       </c>
       <c r="U14" t="n">
-        <v>774.938829594712</v>
+        <v>493.3371361049934</v>
       </c>
       <c r="V14" t="n">
-        <v>774.938829594712</v>
+        <v>271.5628356261079</v>
       </c>
       <c r="W14" t="n">
-        <v>774.938829594712</v>
+        <v>271.5628356261079</v>
       </c>
       <c r="X14" t="n">
-        <v>774.938829594712</v>
+        <v>271.5628356261079</v>
       </c>
       <c r="Y14" t="n">
-        <v>774.938829594712</v>
+        <v>271.5628356261079</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>682.4902741771609</v>
+        <v>464.9713081237155</v>
       </c>
       <c r="C15" t="n">
-        <v>548.4952029261066</v>
+        <v>330.9762368726612</v>
       </c>
       <c r="D15" t="n">
-        <v>431.598045145499</v>
+        <v>214.0790790920536</v>
       </c>
       <c r="E15" t="n">
-        <v>311.105229137827</v>
+        <v>93.58626308438161</v>
       </c>
       <c r="F15" t="n">
-        <v>202.1453493203315</v>
+        <v>93.58626308438161</v>
       </c>
       <c r="G15" t="n">
-        <v>95.90644344583291</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="H15" t="n">
-        <v>32.41430678935677</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="I15" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="J15" t="n">
-        <v>36.26919386777749</v>
+        <v>36.26919386777751</v>
       </c>
       <c r="K15" t="n">
-        <v>99.89115689943324</v>
+        <v>99.89115689943331</v>
       </c>
       <c r="L15" t="n">
-        <v>204.1993668012283</v>
+        <v>204.1993668012285</v>
       </c>
       <c r="M15" t="n">
-        <v>333.7616594659747</v>
+        <v>333.761659465975</v>
       </c>
       <c r="N15" t="n">
-        <v>472.5885816838006</v>
+        <v>472.588581683801</v>
       </c>
       <c r="O15" t="n">
-        <v>590.5890764169</v>
+        <v>590.5890764169004</v>
       </c>
       <c r="P15" t="n">
-        <v>677.4649847190649</v>
+        <v>677.4649847190653</v>
       </c>
       <c r="Q15" t="n">
-        <v>715.3219541700631</v>
+        <v>715.3219541700636</v>
       </c>
       <c r="R15" t="n">
-        <v>715.3219541700631</v>
+        <v>715.3219541700636</v>
       </c>
       <c r="S15" t="n">
-        <v>715.3219541700631</v>
+        <v>621.2852813250473</v>
       </c>
       <c r="T15" t="n">
-        <v>715.3219541700631</v>
+        <v>464.9713081237155</v>
       </c>
       <c r="U15" t="n">
-        <v>715.3219541700631</v>
+        <v>464.9713081237155</v>
       </c>
       <c r="V15" t="n">
-        <v>715.3219541700631</v>
+        <v>464.9713081237155</v>
       </c>
       <c r="W15" t="n">
-        <v>715.3219541700631</v>
+        <v>464.9713081237155</v>
       </c>
       <c r="X15" t="n">
-        <v>715.3219541700631</v>
+        <v>464.9713081237155</v>
       </c>
       <c r="Y15" t="n">
-        <v>715.3219541700631</v>
+        <v>464.9713081237155</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17.56452459792772</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="C16" t="n">
-        <v>17.56452459792772</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="D16" t="n">
-        <v>17.56452459792772</v>
+        <v>178.4753397296083</v>
       </c>
       <c r="E16" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="F16" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="G16" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="H16" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="I16" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="J16" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="K16" t="n">
-        <v>37.55032788682527</v>
+        <v>37.55032788682529</v>
       </c>
       <c r="L16" t="n">
-        <v>75.23712329476733</v>
+        <v>75.23712329476737</v>
       </c>
       <c r="M16" t="n">
-        <v>116.2921695945572</v>
+        <v>116.2921695945573</v>
       </c>
       <c r="N16" t="n">
-        <v>159.5533166477875</v>
+        <v>159.5533166477877</v>
       </c>
       <c r="O16" t="n">
-        <v>191.2851869593637</v>
+        <v>191.2851869593638</v>
       </c>
       <c r="P16" t="n">
-        <v>210.7171855514432</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="Q16" t="n">
-        <v>201.4739027533387</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="R16" t="n">
-        <v>144.5186781107283</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="S16" t="n">
-        <v>17.56452459792772</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="T16" t="n">
-        <v>17.56452459792772</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="U16" t="n">
-        <v>17.56452459792772</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="V16" t="n">
-        <v>17.56452459792772</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="W16" t="n">
-        <v>17.56452459792772</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="X16" t="n">
-        <v>17.56452459792772</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.56452459792772</v>
+        <v>210.7171855514434</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17.56452459792772</v>
+        <v>434.6776289386155</v>
       </c>
       <c r="C17" t="n">
-        <v>17.56452459792772</v>
+        <v>434.6776289386155</v>
       </c>
       <c r="D17" t="n">
-        <v>17.56452459792772</v>
+        <v>434.6776289386155</v>
       </c>
       <c r="E17" t="n">
-        <v>17.56452459792772</v>
+        <v>239.3388250768132</v>
       </c>
       <c r="F17" t="n">
-        <v>17.56452459792772</v>
+        <v>239.3388250768132</v>
       </c>
       <c r="G17" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="H17" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="I17" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="J17" t="n">
-        <v>61.76566646422748</v>
+        <v>61.76566646422724</v>
       </c>
       <c r="K17" t="n">
-        <v>148.5608200474258</v>
+        <v>148.5608200474255</v>
       </c>
       <c r="L17" t="n">
-        <v>271.1830965723315</v>
+        <v>271.1830965723314</v>
       </c>
       <c r="M17" t="n">
         <v>420.4501281543866</v>
       </c>
       <c r="N17" t="n">
-        <v>574.0010487547436</v>
+        <v>574.0010487547438</v>
       </c>
       <c r="O17" t="n">
-        <v>713.5940480809678</v>
+        <v>713.594048080968</v>
       </c>
       <c r="P17" t="n">
-        <v>818.7605380598425</v>
+        <v>818.7605380598428</v>
       </c>
       <c r="Q17" t="n">
-        <v>878.226229896386</v>
+        <v>878.2262298963865</v>
       </c>
       <c r="R17" t="n">
-        <v>878.2262298963859</v>
+        <v>878.2262298963865</v>
       </c>
       <c r="S17" t="n">
-        <v>878.2262298963859</v>
+        <v>878.2262298963865</v>
       </c>
       <c r="T17" t="n">
-        <v>662.1657606273695</v>
+        <v>878.2262298963865</v>
       </c>
       <c r="U17" t="n">
-        <v>440.3914601484842</v>
+        <v>878.2262298963865</v>
       </c>
       <c r="V17" t="n">
-        <v>239.3388250768131</v>
+        <v>878.2262298963865</v>
       </c>
       <c r="W17" t="n">
-        <v>17.56452459792772</v>
+        <v>878.2262298963865</v>
       </c>
       <c r="X17" t="n">
-        <v>17.56452459792772</v>
+        <v>878.2262298963865</v>
       </c>
       <c r="Y17" t="n">
-        <v>17.56452459792772</v>
+        <v>656.451929417501</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>78.12042645224551</v>
+        <v>78.90237839444629</v>
       </c>
       <c r="C18" t="n">
-        <v>78.12042645224551</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="D18" t="n">
-        <v>78.12042645224551</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="E18" t="n">
-        <v>78.12042645224551</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="F18" t="n">
-        <v>78.12042645224551</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="G18" t="n">
-        <v>78.12042645224551</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="H18" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="I18" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="J18" t="n">
-        <v>36.26919386777747</v>
+        <v>36.26919386777751</v>
       </c>
       <c r="K18" t="n">
-        <v>99.89115689943321</v>
+        <v>99.89115689943331</v>
       </c>
       <c r="L18" t="n">
-        <v>204.1993668012283</v>
+        <v>204.1993668012285</v>
       </c>
       <c r="M18" t="n">
-        <v>333.7616594659747</v>
+        <v>333.761659465975</v>
       </c>
       <c r="N18" t="n">
-        <v>472.5885816838006</v>
+        <v>472.588581683801</v>
       </c>
       <c r="O18" t="n">
-        <v>590.5890764169</v>
+        <v>590.5890764169004</v>
       </c>
       <c r="P18" t="n">
-        <v>677.4649847190648</v>
+        <v>677.4649847190653</v>
       </c>
       <c r="Q18" t="n">
-        <v>715.3219541700629</v>
+        <v>715.3219541700636</v>
       </c>
       <c r="R18" t="n">
-        <v>702.3665110839298</v>
+        <v>702.3665110839305</v>
       </c>
       <c r="S18" t="n">
-        <v>702.3665110839298</v>
+        <v>608.3298382389142</v>
       </c>
       <c r="T18" t="n">
-        <v>702.3665110839298</v>
+        <v>452.0158650375824</v>
       </c>
       <c r="U18" t="n">
-        <v>505.065121722883</v>
+        <v>452.0158650375824</v>
       </c>
       <c r="V18" t="n">
-        <v>291.3535947159168</v>
+        <v>238.3043380306163</v>
       </c>
       <c r="W18" t="n">
-        <v>78.12042645224551</v>
+        <v>238.3043380306163</v>
       </c>
       <c r="X18" t="n">
-        <v>78.12042645224551</v>
+        <v>238.3043380306163</v>
       </c>
       <c r="Y18" t="n">
-        <v>78.12042645224551</v>
+        <v>78.90237839444629</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="C19" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="D19" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="E19" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="F19" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="G19" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="H19" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="I19" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="J19" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="K19" t="n">
-        <v>37.55032788682526</v>
+        <v>37.55032788682529</v>
       </c>
       <c r="L19" t="n">
-        <v>75.2371232947673</v>
+        <v>75.23712329476737</v>
       </c>
       <c r="M19" t="n">
-        <v>116.2921695945572</v>
+        <v>116.2921695945573</v>
       </c>
       <c r="N19" t="n">
-        <v>159.5533166477875</v>
+        <v>159.5533166477877</v>
       </c>
       <c r="O19" t="n">
-        <v>191.2851869593636</v>
+        <v>191.2851869593638</v>
       </c>
       <c r="P19" t="n">
-        <v>210.7171855514431</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="Q19" t="n">
-        <v>210.7171855514431</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="R19" t="n">
-        <v>210.7171855514431</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="S19" t="n">
-        <v>210.7171855514431</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="T19" t="n">
-        <v>17.56452459792772</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="U19" t="n">
-        <v>17.56452459792772</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="V19" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="W19" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="X19" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="Y19" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792773</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>434.6776289386152</v>
+        <v>115.3297593679253</v>
       </c>
       <c r="C20" t="n">
-        <v>434.6776289386152</v>
+        <v>115.3297593679253</v>
       </c>
       <c r="D20" t="n">
-        <v>434.6776289386152</v>
+        <v>115.3297593679253</v>
       </c>
       <c r="E20" t="n">
-        <v>239.338825076813</v>
+        <v>115.3297593679253</v>
       </c>
       <c r="F20" t="n">
-        <v>17.56452459792771</v>
+        <v>115.3297593679253</v>
       </c>
       <c r="G20" t="n">
-        <v>17.56452459792771</v>
+        <v>115.3297593679253</v>
       </c>
       <c r="H20" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="I20" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="J20" t="n">
-        <v>61.76566646422714</v>
+        <v>61.76566646422724</v>
       </c>
       <c r="K20" t="n">
-        <v>148.5608200474252</v>
+        <v>148.5608200474255</v>
       </c>
       <c r="L20" t="n">
-        <v>271.1830965723308</v>
+        <v>271.1830965723312</v>
       </c>
       <c r="M20" t="n">
-        <v>420.4501281543859</v>
+        <v>420.4501281543865</v>
       </c>
       <c r="N20" t="n">
-        <v>574.001048754743</v>
+        <v>574.0010487547437</v>
       </c>
       <c r="O20" t="n">
-        <v>713.5940480809674</v>
+        <v>713.5940480809679</v>
       </c>
       <c r="P20" t="n">
-        <v>818.760538059842</v>
+        <v>818.7605380598429</v>
       </c>
       <c r="Q20" t="n">
-        <v>878.2262298963857</v>
+        <v>878.2262298963866</v>
       </c>
       <c r="R20" t="n">
-        <v>878.2262298963857</v>
+        <v>878.2262298963866</v>
       </c>
       <c r="S20" t="n">
-        <v>878.2262298963857</v>
+        <v>774.9388295947127</v>
       </c>
       <c r="T20" t="n">
-        <v>878.2262298963857</v>
+        <v>558.8783603256963</v>
       </c>
       <c r="U20" t="n">
-        <v>878.2262298963857</v>
+        <v>558.8783603256963</v>
       </c>
       <c r="V20" t="n">
-        <v>878.2262298963857</v>
+        <v>337.1040598468109</v>
       </c>
       <c r="W20" t="n">
-        <v>878.2262298963857</v>
+        <v>337.1040598468109</v>
       </c>
       <c r="X20" t="n">
-        <v>656.4519294175004</v>
+        <v>115.3297593679253</v>
       </c>
       <c r="Y20" t="n">
-        <v>434.6776289386152</v>
+        <v>115.3297593679253</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="C21" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="D21" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="E21" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="F21" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="G21" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="H21" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="I21" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="J21" t="n">
-        <v>36.26919386777747</v>
+        <v>36.26919386777752</v>
       </c>
       <c r="K21" t="n">
-        <v>99.89115689943321</v>
+        <v>99.89115689943333</v>
       </c>
       <c r="L21" t="n">
-        <v>204.1993668012283</v>
+        <v>204.1993668012285</v>
       </c>
       <c r="M21" t="n">
-        <v>333.7616594659747</v>
+        <v>333.761659465975</v>
       </c>
       <c r="N21" t="n">
-        <v>472.5885816838006</v>
+        <v>472.588581683801</v>
       </c>
       <c r="O21" t="n">
-        <v>590.5890764169</v>
+        <v>590.5890764169004</v>
       </c>
       <c r="P21" t="n">
-        <v>677.4649847190648</v>
+        <v>677.4649847190653</v>
       </c>
       <c r="Q21" t="n">
-        <v>715.3219541700629</v>
+        <v>715.3219541700636</v>
       </c>
       <c r="R21" t="n">
-        <v>715.3219541700629</v>
+        <v>715.3219541700636</v>
       </c>
       <c r="S21" t="n">
-        <v>715.3219541700629</v>
+        <v>715.3219541700636</v>
       </c>
       <c r="T21" t="n">
-        <v>641.8106092296121</v>
+        <v>559.0079809687318</v>
       </c>
       <c r="U21" t="n">
-        <v>444.5092198685651</v>
+        <v>559.0079809687318</v>
       </c>
       <c r="V21" t="n">
-        <v>230.797692861599</v>
+        <v>530.5026851333556</v>
       </c>
       <c r="W21" t="n">
-        <v>17.56452459792771</v>
+        <v>317.2695168696844</v>
       </c>
       <c r="X21" t="n">
-        <v>17.56452459792771</v>
+        <v>317.2695168696844</v>
       </c>
       <c r="Y21" t="n">
-        <v>17.56452459792771</v>
+        <v>157.8675572335144</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>685.0735689428703</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="C22" t="n">
-        <v>685.0735689428703</v>
+        <v>39.62381311315988</v>
       </c>
       <c r="D22" t="n">
-        <v>685.0735689428703</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="E22" t="n">
-        <v>685.0735689428703</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="F22" t="n">
-        <v>685.0735689428703</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="G22" t="n">
-        <v>685.0735689428703</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="H22" t="n">
-        <v>685.0735689428703</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="I22" t="n">
-        <v>685.0735689428703</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="J22" t="n">
-        <v>685.0735689428703</v>
+        <v>17.56452459792773</v>
       </c>
       <c r="K22" t="n">
-        <v>705.0593722317678</v>
+        <v>37.5503278868253</v>
       </c>
       <c r="L22" t="n">
-        <v>742.7461676397099</v>
+        <v>75.23712329476739</v>
       </c>
       <c r="M22" t="n">
-        <v>783.8012139394998</v>
+        <v>116.2921695945573</v>
       </c>
       <c r="N22" t="n">
-        <v>827.0623609927301</v>
+        <v>159.5533166477877</v>
       </c>
       <c r="O22" t="n">
-        <v>858.7942313043062</v>
+        <v>191.2851869593638</v>
       </c>
       <c r="P22" t="n">
-        <v>878.2262298963857</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="Q22" t="n">
-        <v>868.9829470982812</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="R22" t="n">
-        <v>868.9829470982812</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="S22" t="n">
-        <v>693.5666410462009</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="T22" t="n">
-        <v>685.0735689428703</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="U22" t="n">
-        <v>685.0735689428703</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="V22" t="n">
-        <v>685.0735689428703</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="W22" t="n">
-        <v>685.0735689428703</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="X22" t="n">
-        <v>685.0735689428703</v>
+        <v>210.7171855514434</v>
       </c>
       <c r="Y22" t="n">
-        <v>685.0735689428703</v>
+        <v>210.7171855514434</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>37.7440047352622</v>
+        <v>1283.239222951408</v>
       </c>
       <c r="C23" t="n">
-        <v>37.7440047352622</v>
+        <v>873.114632264678</v>
       </c>
       <c r="D23" t="n">
-        <v>37.7440047352622</v>
+        <v>873.114632264678</v>
       </c>
       <c r="E23" t="n">
-        <v>37.7440047352622</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="F23" t="n">
         <v>37.7440047352622</v>
@@ -5986,16 +5986,16 @@
         <v>37.7440047352622</v>
       </c>
       <c r="I23" t="n">
-        <v>37.74400473526221</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J23" t="n">
-        <v>151.474921851223</v>
+        <v>151.4749218512229</v>
       </c>
       <c r="K23" t="n">
-        <v>342.4771847987904</v>
+        <v>342.4771847987903</v>
       </c>
       <c r="L23" t="n">
-        <v>594.3775951131298</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M23" t="n">
         <v>887.4914597655643</v>
@@ -6004,7 +6004,7 @@
         <v>1187.216805582613</v>
       </c>
       <c r="O23" t="n">
-        <v>1464.838169622266</v>
+        <v>1464.838169622267</v>
       </c>
       <c r="P23" t="n">
         <v>1687.808675484973</v>
@@ -6019,22 +6019,22 @@
         <v>1802.959711252748</v>
       </c>
       <c r="T23" t="n">
-        <v>1590.558164392902</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="U23" t="n">
-        <v>1590.558164392902</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="V23" t="n">
-        <v>1240.720609729383</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="W23" t="n">
-        <v>856.9603088645513</v>
+        <v>1419.199410387917</v>
       </c>
       <c r="X23" t="n">
-        <v>456.3169110335038</v>
+        <v>1419.199410387917</v>
       </c>
       <c r="Y23" t="n">
-        <v>447.9651843997516</v>
+        <v>1283.239222951408</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>409.1290497745961</v>
+        <v>518.0889295920915</v>
       </c>
       <c r="C24" t="n">
-        <v>275.1339785235418</v>
+        <v>384.0938583410372</v>
       </c>
       <c r="D24" t="n">
-        <v>158.2368207429342</v>
+        <v>267.1967005604296</v>
       </c>
       <c r="E24" t="n">
-        <v>37.7440047352622</v>
+        <v>146.7038845527576</v>
       </c>
       <c r="F24" t="n">
         <v>37.7440047352622</v>
@@ -6095,25 +6095,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S24" t="n">
-        <v>1426.912595986079</v>
+        <v>1341.182798307179</v>
       </c>
       <c r="T24" t="n">
-        <v>1426.912595986079</v>
+        <v>1341.182798307179</v>
       </c>
       <c r="U24" t="n">
-        <v>1312.104719178097</v>
+        <v>1143.910831172222</v>
       </c>
       <c r="V24" t="n">
-        <v>1098.393192171131</v>
+        <v>930.1993041652559</v>
       </c>
       <c r="W24" t="n">
-        <v>885.1600239074598</v>
+        <v>716.9661359015846</v>
       </c>
       <c r="X24" t="n">
-        <v>708.8340420463527</v>
+        <v>716.9661359015846</v>
       </c>
       <c r="Y24" t="n">
-        <v>549.4320824101827</v>
+        <v>658.3919622276782</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1346.088246826314</v>
+        <v>299.7863301809323</v>
       </c>
       <c r="C25" t="n">
-        <v>1346.088246826314</v>
+        <v>299.7863301809323</v>
       </c>
       <c r="D25" t="n">
-        <v>1346.088246826314</v>
+        <v>299.7863301809323</v>
       </c>
       <c r="E25" t="n">
-        <v>1346.088246826314</v>
+        <v>299.7863301809323</v>
       </c>
       <c r="F25" t="n">
-        <v>1346.088246826314</v>
+        <v>203.9896768427527</v>
       </c>
       <c r="G25" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H25" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I25" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J25" t="n">
-        <v>1364.789494308498</v>
+        <v>56.4452522174457</v>
       </c>
       <c r="K25" t="n">
-        <v>1427.468776269658</v>
+        <v>119.1245341786054</v>
       </c>
       <c r="L25" t="n">
-        <v>1519.788525527848</v>
+        <v>211.444283436796</v>
       </c>
       <c r="M25" t="n">
-        <v>1618.446361557358</v>
+        <v>310.1021194663056</v>
       </c>
       <c r="N25" t="n">
-        <v>1717.940632749101</v>
+        <v>409.5963906580484</v>
       </c>
       <c r="O25" t="n">
-        <v>1801.612894797479</v>
+        <v>493.2686527064269</v>
       </c>
       <c r="P25" t="n">
-        <v>1865.488871500339</v>
+        <v>557.1446294092871</v>
       </c>
       <c r="Q25" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="R25" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="S25" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="T25" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="U25" t="n">
-        <v>1619.973991886792</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="V25" t="n">
-        <v>1346.088246826314</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="W25" t="n">
-        <v>1346.088246826314</v>
+        <v>299.7863301809323</v>
       </c>
       <c r="X25" t="n">
-        <v>1346.088246826314</v>
+        <v>299.7863301809323</v>
       </c>
       <c r="Y25" t="n">
-        <v>1346.088246826314</v>
+        <v>299.7863301809323</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>37.7440047352622</v>
+        <v>873.114632264678</v>
       </c>
       <c r="C26" t="n">
-        <v>37.7440047352622</v>
+        <v>873.114632264678</v>
       </c>
       <c r="D26" t="n">
-        <v>37.7440047352622</v>
+        <v>873.114632264678</v>
       </c>
       <c r="E26" t="n">
-        <v>37.7440047352622</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="F26" t="n">
         <v>37.7440047352622</v>
@@ -6223,25 +6223,25 @@
         <v>37.7440047352622</v>
       </c>
       <c r="I26" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526225</v>
       </c>
       <c r="J26" t="n">
-        <v>151.4749218512234</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K26" t="n">
-        <v>342.4771847987906</v>
+        <v>342.4771847987904</v>
       </c>
       <c r="L26" t="n">
-        <v>594.3775951131299</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M26" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N26" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O26" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P26" t="n">
         <v>1687.808675484973</v>
@@ -6256,22 +6256,22 @@
         <v>1802.959711252748</v>
       </c>
       <c r="T26" t="n">
-        <v>1802.959711252748</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="U26" t="n">
-        <v>1546.078407399286</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="V26" t="n">
-        <v>1196.240852735767</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="W26" t="n">
-        <v>812.4805518709352</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="X26" t="n">
-        <v>447.9651843997516</v>
+        <v>1283.335811929167</v>
       </c>
       <c r="Y26" t="n">
-        <v>447.9651843997516</v>
+        <v>1283.335811929167</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>172.153587964745</v>
+        <v>288.6362337669241</v>
       </c>
       <c r="C27" t="n">
-        <v>38.15851671369069</v>
+        <v>154.6411625158698</v>
       </c>
       <c r="D27" t="n">
         <v>37.7440047352622</v>
@@ -6335,22 +6335,22 @@
         <v>1426.912595986079</v>
       </c>
       <c r="T27" t="n">
-        <v>1272.401224503203</v>
+        <v>1388.883870305382</v>
       </c>
       <c r="U27" t="n">
-        <v>1075.129257368246</v>
+        <v>1191.611903170425</v>
       </c>
       <c r="V27" t="n">
-        <v>861.4177303612801</v>
+        <v>977.9003761634591</v>
       </c>
       <c r="W27" t="n">
-        <v>648.1845620976088</v>
+        <v>764.6672078997879</v>
       </c>
       <c r="X27" t="n">
-        <v>471.8585802365016</v>
+        <v>588.3412260386807</v>
       </c>
       <c r="Y27" t="n">
-        <v>312.4566206003316</v>
+        <v>428.9392664025107</v>
       </c>
     </row>
     <row r="28">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>198.6548198669427</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="C28" t="n">
-        <v>198.6548198669427</v>
+        <v>197.2386494123522</v>
       </c>
       <c r="D28" t="n">
-        <v>198.6548198669427</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="E28" t="n">
         <v>37.7440047352622</v>
@@ -6417,19 +6417,19 @@
         <v>578.8559946720579</v>
       </c>
       <c r="U28" t="n">
-        <v>578.8559946720579</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="V28" t="n">
-        <v>578.8559946720579</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="W28" t="n">
-        <v>578.8559946720579</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="X28" t="n">
-        <v>578.8559946720579</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="Y28" t="n">
-        <v>386.3545262609871</v>
+        <v>296.1126500709257</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>37.74400473526219</v>
+        <v>865.2628523008966</v>
       </c>
       <c r="C29" t="n">
-        <v>37.74400473526219</v>
+        <v>865.2628523008966</v>
       </c>
       <c r="D29" t="n">
-        <v>37.74400473526219</v>
+        <v>865.2628523008966</v>
       </c>
       <c r="E29" t="n">
-        <v>37.74400473526219</v>
+        <v>865.2628523008966</v>
       </c>
       <c r="F29" t="n">
-        <v>37.74400473526219</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G29" t="n">
         <v>37.74400473526219</v>
@@ -6460,16 +6460,16 @@
         <v>37.74400473526219</v>
       </c>
       <c r="I29" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="J29" t="n">
-        <v>151.4749218512225</v>
+        <v>151.474921851223</v>
       </c>
       <c r="K29" t="n">
-        <v>342.4771847987899</v>
+        <v>342.4771847987902</v>
       </c>
       <c r="L29" t="n">
-        <v>594.3775951131295</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M29" t="n">
         <v>887.4914597655641</v>
@@ -6490,25 +6490,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S29" t="n">
-        <v>1802.959711252748</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="T29" t="n">
-        <v>1590.558164392902</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="U29" t="n">
-        <v>1333.676860539439</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="V29" t="n">
-        <v>983.83930587592</v>
+        <v>1324.961135239744</v>
       </c>
       <c r="W29" t="n">
-        <v>600.0790050110886</v>
+        <v>1324.961135239744</v>
       </c>
       <c r="X29" t="n">
-        <v>447.9651843997516</v>
+        <v>1324.961135239744</v>
       </c>
       <c r="Y29" t="n">
-        <v>447.9651843997516</v>
+        <v>924.0244621878343</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>326.6649594476208</v>
+        <v>518.0889295920915</v>
       </c>
       <c r="C30" t="n">
-        <v>192.6698881965665</v>
+        <v>384.0938583410372</v>
       </c>
       <c r="D30" t="n">
-        <v>75.77273041595897</v>
+        <v>267.1967005604296</v>
       </c>
       <c r="E30" t="n">
-        <v>37.74400473526219</v>
+        <v>146.7038845527576</v>
       </c>
       <c r="F30" t="n">
         <v>37.74400473526219</v>
@@ -6587,7 +6587,7 @@
         <v>626.3699517193775</v>
       </c>
       <c r="Y30" t="n">
-        <v>466.9679920832075</v>
+        <v>626.3699517193775</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>578.8559946720579</v>
+        <v>57.76878793060905</v>
       </c>
       <c r="C31" t="n">
-        <v>578.8559946720579</v>
+        <v>57.76878793060905</v>
       </c>
       <c r="D31" t="n">
-        <v>578.8559946720579</v>
+        <v>57.76878793060905</v>
       </c>
       <c r="E31" t="n">
-        <v>509.2953929294971</v>
+        <v>57.76878793060905</v>
       </c>
       <c r="F31" t="n">
-        <v>344.6642670400884</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G31" t="n">
-        <v>178.4185949325979</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H31" t="n">
         <v>37.74400473526219</v>
@@ -6654,19 +6654,19 @@
         <v>578.8559946720579</v>
       </c>
       <c r="U31" t="n">
-        <v>578.8559946720579</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="V31" t="n">
-        <v>578.8559946720579</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="W31" t="n">
-        <v>578.8559946720579</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="X31" t="n">
-        <v>578.8559946720579</v>
+        <v>57.76878793060905</v>
       </c>
       <c r="Y31" t="n">
-        <v>578.8559946720579</v>
+        <v>57.76878793060905</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1392.738531588259</v>
+        <v>1161.084280286684</v>
       </c>
       <c r="C32" t="n">
-        <v>982.6139409015287</v>
+        <v>1161.084280286684</v>
       </c>
       <c r="D32" t="n">
-        <v>578.1500109945893</v>
+        <v>1161.084280286684</v>
       </c>
       <c r="E32" t="n">
-        <v>163.809795511486</v>
+        <v>746.7440648035805</v>
       </c>
       <c r="F32" t="n">
-        <v>163.809795511486</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="G32" t="n">
-        <v>37.7440047352622</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="H32" t="n">
         <v>37.7440047352622</v>
       </c>
       <c r="I32" t="n">
-        <v>37.74400473526225</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J32" t="n">
         <v>151.4749218512231</v>
       </c>
       <c r="K32" t="n">
-        <v>342.4771847987905</v>
+        <v>342.4771847987904</v>
       </c>
       <c r="L32" t="n">
-        <v>594.3775951131299</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M32" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N32" t="n">
         <v>1187.216805582613</v>
@@ -6727,25 +6727,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S32" t="n">
-        <v>1802.959711252748</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="T32" t="n">
-        <v>1802.959711252748</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="U32" t="n">
-        <v>1802.959711252748</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="V32" t="n">
-        <v>1802.959711252748</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="W32" t="n">
-        <v>1802.959711252748</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="X32" t="n">
-        <v>1802.959711252748</v>
+        <v>1571.305459951173</v>
       </c>
       <c r="Y32" t="n">
-        <v>1802.959711252748</v>
+        <v>1571.305459951173</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>471.8585802365016</v>
+        <v>626.3699517193775</v>
       </c>
       <c r="C33" t="n">
-        <v>337.8635089854473</v>
+        <v>492.3748804683232</v>
       </c>
       <c r="D33" t="n">
-        <v>220.9663512048397</v>
+        <v>432.1613424648016</v>
       </c>
       <c r="E33" t="n">
-        <v>100.4735351971677</v>
+        <v>311.6685264571296</v>
       </c>
       <c r="F33" t="n">
-        <v>37.7440047352622</v>
+        <v>202.7086466396342</v>
       </c>
       <c r="G33" t="n">
-        <v>37.7440047352622</v>
+        <v>96.91695860170569</v>
       </c>
       <c r="H33" t="n">
         <v>37.7440047352622</v>
@@ -6809,22 +6809,22 @@
         <v>1426.912595986079</v>
       </c>
       <c r="T33" t="n">
-        <v>1272.401224503203</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="U33" t="n">
-        <v>1075.129257368246</v>
+        <v>1229.640628851122</v>
       </c>
       <c r="V33" t="n">
-        <v>861.4177303612801</v>
+        <v>1015.929101844156</v>
       </c>
       <c r="W33" t="n">
-        <v>648.1845620976088</v>
+        <v>802.6959335804846</v>
       </c>
       <c r="X33" t="n">
-        <v>471.8585802365016</v>
+        <v>626.3699517193775</v>
       </c>
       <c r="Y33" t="n">
-        <v>471.8585802365016</v>
+        <v>626.3699517193775</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>123.8754111516284</v>
+        <v>354.1202960608226</v>
       </c>
       <c r="C34" t="n">
-        <v>123.8754111516284</v>
+        <v>183.0269236225391</v>
       </c>
       <c r="D34" t="n">
-        <v>123.8754111516284</v>
+        <v>183.0269236225391</v>
       </c>
       <c r="E34" t="n">
-        <v>123.8754111516284</v>
+        <v>183.0269236225391</v>
       </c>
       <c r="F34" t="n">
-        <v>123.8754111516284</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G34" t="n">
-        <v>123.8754111516284</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H34" t="n">
-        <v>123.8754111516284</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I34" t="n">
         <v>37.7440047352622</v>
@@ -6882,28 +6882,28 @@
         <v>578.8559946720579</v>
       </c>
       <c r="R34" t="n">
-        <v>538.7590946257694</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="S34" t="n">
-        <v>369.8768379572616</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="T34" t="n">
-        <v>134.6209890655461</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="U34" t="n">
-        <v>123.8754111516284</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="V34" t="n">
-        <v>123.8754111516284</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="W34" t="n">
-        <v>123.8754111516284</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="X34" t="n">
-        <v>123.8754111516284</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="Y34" t="n">
-        <v>123.8754111516284</v>
+        <v>354.1202960608226</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1402.3163134217</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="C35" t="n">
-        <v>992.1917227349703</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="D35" t="n">
-        <v>858.5726557376875</v>
+        <v>1270.334759996324</v>
       </c>
       <c r="E35" t="n">
-        <v>444.2324402545842</v>
+        <v>1153.232500322903</v>
       </c>
       <c r="F35" t="n">
-        <v>444.2324402545842</v>
+        <v>732.2020882765901</v>
       </c>
       <c r="G35" t="n">
-        <v>37.74400473526219</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="H35" t="n">
         <v>37.74400473526219</v>
@@ -6937,16 +6937,16 @@
         <v>37.74400473526219</v>
       </c>
       <c r="J35" t="n">
-        <v>151.4749218512231</v>
+        <v>151.4749218512225</v>
       </c>
       <c r="K35" t="n">
-        <v>342.4771847987905</v>
+        <v>342.4771847987897</v>
       </c>
       <c r="L35" t="n">
-        <v>594.3775951131299</v>
+        <v>594.377595113129</v>
       </c>
       <c r="M35" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655634</v>
       </c>
       <c r="N35" t="n">
         <v>1187.216805582613</v>
@@ -6955,7 +6955,7 @@
         <v>1464.838169622266</v>
       </c>
       <c r="P35" t="n">
-        <v>1687.808675484973</v>
+        <v>1687.808675484972</v>
       </c>
       <c r="Q35" t="n">
         <v>1835.740277181654</v>
@@ -6964,25 +6964,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S35" t="n">
-        <v>1802.959711252748</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="T35" t="n">
-        <v>1802.959711252748</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="U35" t="n">
-        <v>1802.959711252748</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="V35" t="n">
-        <v>1802.959711252748</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="W35" t="n">
-        <v>1802.959711252748</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="X35" t="n">
-        <v>1402.3163134217</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="Y35" t="n">
-        <v>1402.3163134217</v>
+        <v>1674.798689903263</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>172.153587964745</v>
+        <v>466.9679920832075</v>
       </c>
       <c r="C36" t="n">
-        <v>172.153587964745</v>
+        <v>332.9729208321532</v>
       </c>
       <c r="D36" t="n">
-        <v>55.25643018413741</v>
+        <v>267.1967005604296</v>
       </c>
       <c r="E36" t="n">
-        <v>37.74400473526219</v>
+        <v>146.7038845527576</v>
       </c>
       <c r="F36" t="n">
         <v>37.74400473526219</v>
@@ -7046,22 +7046,22 @@
         <v>1426.912595986079</v>
       </c>
       <c r="T36" t="n">
-        <v>1272.401224503203</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="U36" t="n">
-        <v>1075.129257368246</v>
+        <v>1229.640628851122</v>
       </c>
       <c r="V36" t="n">
-        <v>861.4177303612801</v>
+        <v>1015.929101844156</v>
       </c>
       <c r="W36" t="n">
-        <v>648.1845620976088</v>
+        <v>802.6959335804846</v>
       </c>
       <c r="X36" t="n">
-        <v>471.8585802365016</v>
+        <v>626.3699517193775</v>
       </c>
       <c r="Y36" t="n">
-        <v>312.4566206003316</v>
+        <v>466.9679920832075</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1739.139915547506</v>
+        <v>522.7805904334414</v>
       </c>
       <c r="C37" t="n">
-        <v>1739.139915547506</v>
+        <v>522.7805904334414</v>
       </c>
       <c r="D37" t="n">
-        <v>1739.139915547506</v>
+        <v>363.2859457563515</v>
       </c>
       <c r="E37" t="n">
-        <v>1739.139915547506</v>
+        <v>202.3751306246709</v>
       </c>
       <c r="F37" t="n">
-        <v>1739.139915547506</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G37" t="n">
-        <v>1572.894243440016</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H37" t="n">
-        <v>1432.21965324268</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I37" t="n">
-        <v>1346.088246826314</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J37" t="n">
-        <v>1364.789494308498</v>
+        <v>56.4452522174457</v>
       </c>
       <c r="K37" t="n">
-        <v>1427.468776269657</v>
+        <v>119.1245341786054</v>
       </c>
       <c r="L37" t="n">
-        <v>1519.788525527848</v>
+        <v>211.444283436796</v>
       </c>
       <c r="M37" t="n">
-        <v>1618.446361557357</v>
+        <v>310.1021194663056</v>
       </c>
       <c r="N37" t="n">
-        <v>1717.9406327491</v>
+        <v>409.5963906580484</v>
       </c>
       <c r="O37" t="n">
-        <v>1801.612894797479</v>
+        <v>493.2686527064269</v>
       </c>
       <c r="P37" t="n">
-        <v>1865.488871500339</v>
+        <v>557.1446294092871</v>
       </c>
       <c r="Q37" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="R37" t="n">
-        <v>1847.103336716821</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="S37" t="n">
-        <v>1739.139915547506</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="T37" t="n">
-        <v>1739.139915547506</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="U37" t="n">
-        <v>1739.139915547506</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="V37" t="n">
-        <v>1739.139915547506</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="W37" t="n">
-        <v>1739.139915547506</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="X37" t="n">
-        <v>1739.139915547506</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="Y37" t="n">
-        <v>1739.139915547506</v>
+        <v>522.7805904334414</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1476.97905709862</v>
+        <v>873.114632264678</v>
       </c>
       <c r="C38" t="n">
-        <v>1476.97905709862</v>
+        <v>873.114632264678</v>
       </c>
       <c r="D38" t="n">
-        <v>1476.97905709862</v>
+        <v>873.114632264678</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.638841615517</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="F38" t="n">
-        <v>641.6084295692044</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G38" t="n">
-        <v>235.1199940498824</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H38" t="n">
         <v>37.74400473526219</v>
@@ -7210,16 +7210,16 @@
         <v>1887.20023676311</v>
       </c>
       <c r="V38" t="n">
-        <v>1887.20023676311</v>
+        <v>1537.36268209959</v>
       </c>
       <c r="W38" t="n">
-        <v>1887.20023676311</v>
+        <v>1153.602381234759</v>
       </c>
       <c r="X38" t="n">
-        <v>1887.20023676311</v>
+        <v>873.114632264678</v>
       </c>
       <c r="Y38" t="n">
-        <v>1887.20023676311</v>
+        <v>873.114632264678</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>683.0535714964635</v>
+        <v>146.7038845527576</v>
       </c>
       <c r="C39" t="n">
-        <v>549.0585002454092</v>
+        <v>146.7038845527576</v>
       </c>
       <c r="D39" t="n">
-        <v>432.1613424648016</v>
+        <v>146.7038845527576</v>
       </c>
       <c r="E39" t="n">
-        <v>311.6685264571296</v>
+        <v>146.7038845527576</v>
       </c>
       <c r="F39" t="n">
-        <v>202.7086466396342</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G39" t="n">
-        <v>96.91695860170567</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H39" t="n">
         <v>37.74400473526219</v>
@@ -7280,25 +7280,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S39" t="n">
-        <v>1341.182798307179</v>
+        <v>1401.462892574091</v>
       </c>
       <c r="T39" t="n">
-        <v>1196.470090775186</v>
+        <v>1246.951521091215</v>
       </c>
       <c r="U39" t="n">
-        <v>1196.470090775186</v>
+        <v>1049.679553956259</v>
       </c>
       <c r="V39" t="n">
-        <v>982.7585637682201</v>
+        <v>835.9680269492927</v>
       </c>
       <c r="W39" t="n">
-        <v>982.7585637682201</v>
+        <v>622.7348586856215</v>
       </c>
       <c r="X39" t="n">
-        <v>982.7585637682201</v>
+        <v>446.4088768245142</v>
       </c>
       <c r="Y39" t="n">
-        <v>823.3566041320502</v>
+        <v>287.0069171883442</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1517.181619264597</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="C40" t="n">
-        <v>1346.088246826314</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="D40" t="n">
-        <v>1346.088246826314</v>
+        <v>449.4173521727176</v>
       </c>
       <c r="E40" t="n">
-        <v>1346.088246826314</v>
+        <v>288.5065370410371</v>
       </c>
       <c r="F40" t="n">
-        <v>1346.088246826314</v>
+        <v>123.8754111516283</v>
       </c>
       <c r="G40" t="n">
-        <v>1346.088246826314</v>
+        <v>123.8754111516283</v>
       </c>
       <c r="H40" t="n">
-        <v>1346.088246826314</v>
+        <v>123.8754111516283</v>
       </c>
       <c r="I40" t="n">
-        <v>1346.088246826314</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J40" t="n">
-        <v>1364.789494308498</v>
+        <v>56.4452522174457</v>
       </c>
       <c r="K40" t="n">
-        <v>1427.468776269657</v>
+        <v>119.1245341786054</v>
       </c>
       <c r="L40" t="n">
-        <v>1519.788525527848</v>
+        <v>211.444283436796</v>
       </c>
       <c r="M40" t="n">
-        <v>1618.446361557357</v>
+        <v>310.1021194663056</v>
       </c>
       <c r="N40" t="n">
-        <v>1717.9406327491</v>
+        <v>409.5963906580484</v>
       </c>
       <c r="O40" t="n">
-        <v>1801.612894797479</v>
+        <v>493.2686527064269</v>
       </c>
       <c r="P40" t="n">
-        <v>1865.488871500339</v>
+        <v>557.1446294092871</v>
       </c>
       <c r="Q40" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="R40" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="S40" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="T40" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="V40" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="W40" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="X40" t="n">
-        <v>1741.917317875833</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="Y40" t="n">
-        <v>1517.181619264597</v>
+        <v>578.8559946720579</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1268.697246424417</v>
+        <v>1196.240852735766</v>
       </c>
       <c r="C41" t="n">
-        <v>858.5726557376875</v>
+        <v>1196.240852735766</v>
       </c>
       <c r="D41" t="n">
-        <v>858.5726557376875</v>
+        <v>1161.084280286684</v>
       </c>
       <c r="E41" t="n">
-        <v>444.2324402545842</v>
+        <v>746.7440648035805</v>
       </c>
       <c r="F41" t="n">
-        <v>444.2324402545842</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="G41" t="n">
-        <v>37.74400473526219</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="H41" t="n">
         <v>37.74400473526219</v>
@@ -7411,13 +7411,13 @@
         <v>37.74400473526219</v>
       </c>
       <c r="J41" t="n">
-        <v>151.4749218512229</v>
+        <v>151.474921851223</v>
       </c>
       <c r="K41" t="n">
-        <v>342.4771847987904</v>
+        <v>342.4771847987903</v>
       </c>
       <c r="L41" t="n">
-        <v>594.3775951131298</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M41" t="n">
         <v>887.4914597655643</v>
@@ -7432,7 +7432,7 @@
         <v>1687.808675484973</v>
       </c>
       <c r="Q41" t="n">
-        <v>1835.740277181655</v>
+        <v>1835.740277181654</v>
       </c>
       <c r="R41" t="n">
         <v>1887.20023676311</v>
@@ -7444,19 +7444,19 @@
         <v>1802.959711252748</v>
       </c>
       <c r="U41" t="n">
-        <v>1546.078407399286</v>
+        <v>1546.078407399285</v>
       </c>
       <c r="V41" t="n">
-        <v>1268.697246424417</v>
+        <v>1196.240852735766</v>
       </c>
       <c r="W41" t="n">
-        <v>1268.697246424417</v>
+        <v>1196.240852735766</v>
       </c>
       <c r="X41" t="n">
-        <v>1268.697246424417</v>
+        <v>1196.240852735766</v>
       </c>
       <c r="Y41" t="n">
-        <v>1268.697246424417</v>
+        <v>1196.240852735766</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>683.0535714964635</v>
+        <v>457.1965338983605</v>
       </c>
       <c r="C42" t="n">
-        <v>549.0585002454092</v>
+        <v>323.2014626473062</v>
       </c>
       <c r="D42" t="n">
-        <v>432.1613424648016</v>
+        <v>323.2014626473062</v>
       </c>
       <c r="E42" t="n">
-        <v>311.6685264571296</v>
+        <v>202.7086466396342</v>
       </c>
       <c r="F42" t="n">
         <v>202.7086466396342</v>
@@ -7517,25 +7517,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S42" t="n">
-        <v>1426.912595986079</v>
+        <v>1341.182798307179</v>
       </c>
       <c r="T42" t="n">
-        <v>1426.912595986079</v>
+        <v>1186.671426824303</v>
       </c>
       <c r="U42" t="n">
-        <v>1426.912595986079</v>
+        <v>989.3994596893464</v>
       </c>
       <c r="V42" t="n">
-        <v>1372.317713892999</v>
+        <v>775.6879326823802</v>
       </c>
       <c r="W42" t="n">
-        <v>1159.084545629327</v>
+        <v>756.9015261701172</v>
       </c>
       <c r="X42" t="n">
-        <v>982.7585637682201</v>
+        <v>756.9015261701172</v>
       </c>
       <c r="Y42" t="n">
-        <v>823.3566041320502</v>
+        <v>597.4995665339472</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>37.74400473526219</v>
+        <v>339.3294100642784</v>
       </c>
       <c r="C43" t="n">
-        <v>37.74400473526219</v>
+        <v>339.3294100642784</v>
       </c>
       <c r="D43" t="n">
-        <v>37.74400473526219</v>
+        <v>339.3294100642784</v>
       </c>
       <c r="E43" t="n">
-        <v>37.74400473526219</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="F43" t="n">
-        <v>37.74400473526219</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="G43" t="n">
-        <v>37.74400473526219</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="H43" t="n">
         <v>37.74400473526219</v>
@@ -7608,13 +7608,13 @@
         <v>578.8559946720579</v>
       </c>
       <c r="W43" t="n">
-        <v>578.8559946720579</v>
+        <v>339.3294100642784</v>
       </c>
       <c r="X43" t="n">
-        <v>340.5121325317413</v>
+        <v>339.3294100642784</v>
       </c>
       <c r="Y43" t="n">
-        <v>115.776433920506</v>
+        <v>339.3294100642784</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1180.336984728412</v>
+        <v>1142.32667896332</v>
       </c>
       <c r="C44" t="n">
-        <v>1180.336984728412</v>
+        <v>732.2020882765901</v>
       </c>
       <c r="D44" t="n">
-        <v>1180.336984728412</v>
+        <v>732.2020882765901</v>
       </c>
       <c r="E44" t="n">
-        <v>765.996769245309</v>
+        <v>732.2020882765901</v>
       </c>
       <c r="F44" t="n">
-        <v>344.9663571989965</v>
+        <v>732.2020882765901</v>
       </c>
       <c r="G44" t="n">
         <v>325.7136527572681</v>
@@ -7678,22 +7678,22 @@
         <v>1802.959711252748</v>
       </c>
       <c r="T44" t="n">
-        <v>1590.558164392902</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="U44" t="n">
-        <v>1590.558164392902</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="V44" t="n">
-        <v>1590.558164392902</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="W44" t="n">
-        <v>1590.558164392902</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="X44" t="n">
-        <v>1590.558164392902</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="Y44" t="n">
-        <v>1590.558164392902</v>
+        <v>1402.023038200838</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>326.6649594476208</v>
+        <v>574.0936916789681</v>
       </c>
       <c r="C45" t="n">
-        <v>192.6698881965665</v>
+        <v>440.0986204279138</v>
       </c>
       <c r="D45" t="n">
-        <v>75.77273041595897</v>
+        <v>323.2014626473062</v>
       </c>
       <c r="E45" t="n">
-        <v>37.74400473526219</v>
+        <v>202.7086466396342</v>
       </c>
       <c r="F45" t="n">
-        <v>37.74400473526219</v>
+        <v>202.7086466396342</v>
       </c>
       <c r="G45" t="n">
-        <v>37.74400473526219</v>
+        <v>96.91695860170567</v>
       </c>
       <c r="H45" t="n">
         <v>37.74400473526219</v>
@@ -7760,19 +7760,19 @@
         <v>1426.912595986079</v>
       </c>
       <c r="U45" t="n">
-        <v>1229.640628851122</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="V45" t="n">
-        <v>1015.929101844156</v>
+        <v>1213.201068979113</v>
       </c>
       <c r="W45" t="n">
-        <v>802.6959335804846</v>
+        <v>999.9679007154415</v>
       </c>
       <c r="X45" t="n">
-        <v>626.3699517193775</v>
+        <v>873.7986839507247</v>
       </c>
       <c r="Y45" t="n">
-        <v>466.9679920832075</v>
+        <v>714.3967243145547</v>
       </c>
     </row>
     <row r="46">
@@ -7839,10 +7839,10 @@
         <v>578.8559946720579</v>
       </c>
       <c r="U46" t="n">
-        <v>578.8559946720579</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="V46" t="n">
-        <v>304.9702496115798</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="W46" t="n">
         <v>37.74400473526219</v>
@@ -23269,7 +23269,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>197.2635504517527</v>
       </c>
       <c r="G11" t="n">
         <v>403.2510401841353</v>
@@ -23278,7 +23278,7 @@
         <v>293.5644734679276</v>
       </c>
       <c r="I11" t="n">
-        <v>31.90177044380174</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,16 +23311,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U11" t="n">
-        <v>34.82213246243165</v>
+        <v>34.82213246243154</v>
       </c>
       <c r="V11" t="n">
-        <v>126.7826216427876</v>
+        <v>126.7826216427875</v>
       </c>
       <c r="W11" t="n">
-        <v>283.1351154338859</v>
+        <v>320.6935787754578</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>106.3966391162576</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>105.1765168157536</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>62.85721528991136</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>14.70128436951475</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>12.82588865527176</v>
+        <v>12.82588865527175</v>
       </c>
       <c r="S12" t="n">
         <v>93.09630611656611</v>
       </c>
       <c r="T12" t="n">
-        <v>154.7508334693185</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3283754674364</v>
+        <v>9.773767706467765</v>
       </c>
       <c r="V12" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>211.1008365810345</v>
@@ -23433,13 +23433,13 @@
         <v>164.9543984734636</v>
       </c>
       <c r="H13" t="n">
-        <v>142.5679993783892</v>
+        <v>125.0090080259682</v>
       </c>
       <c r="I13" t="n">
-        <v>96.43258009724632</v>
+        <v>96.4325800972463</v>
       </c>
       <c r="J13" t="n">
-        <v>7.35249528239185</v>
+        <v>7.352495282391835</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>9.150849970123431</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>56.3856723961843</v>
       </c>
       <c r="S13" t="n">
-        <v>47.9775310138869</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>234.4892545020035</v>
@@ -23503,16 +23503,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>350.967694247547</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>197.2635504517528</v>
+        <v>197.2635504517527</v>
       </c>
       <c r="G14" t="n">
-        <v>183.6944827100388</v>
+        <v>403.2510401841353</v>
       </c>
       <c r="H14" t="n">
-        <v>74.00791599383112</v>
+        <v>293.5644734679276</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T14" t="n">
-        <v>213.8998645763261</v>
+        <v>52.41621919694364</v>
       </c>
       <c r="U14" t="n">
-        <v>254.3786899365281</v>
+        <v>34.82213246243151</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>126.7826216427875</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>106.3966391162576</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>29.91499571416431</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>62.85721528991136</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>14.70128436951475</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>12.82588865527176</v>
+        <v>12.82588865527175</v>
       </c>
       <c r="S15" t="n">
-        <v>93.09630611656611</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>154.7508334693185</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>195.3283754674364</v>
@@ -23658,10 +23658,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>125.9802708667023</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
@@ -23673,10 +23673,10 @@
         <v>142.5679993783892</v>
       </c>
       <c r="I16" t="n">
-        <v>96.43258009724632</v>
+        <v>96.4325800972463</v>
       </c>
       <c r="J16" t="n">
-        <v>7.35249528239185</v>
+        <v>7.352495282391835</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>9.150849970123431</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>56.3856723961843</v>
       </c>
       <c r="S16" t="n">
-        <v>47.9775310138869</v>
+        <v>173.6621429915595</v>
       </c>
       <c r="T16" t="n">
         <v>234.4892545020035</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>186.5624103937479</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -23740,19 +23740,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>216.811397505088</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>403.2510401841353</v>
+        <v>183.6944827100386</v>
       </c>
       <c r="H17" t="n">
         <v>293.5644734679276</v>
       </c>
       <c r="I17" t="n">
-        <v>31.90177044380174</v>
+        <v>31.90177044380172</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>102.2545262986572</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U17" t="n">
-        <v>34.82213246243165</v>
+        <v>254.3786899365281</v>
       </c>
       <c r="V17" t="n">
-        <v>147.2970703959298</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>160.3661403820866</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>177.3707488472942</v>
       </c>
     </row>
     <row r="18">
@@ -23813,7 +23813,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6551205385437</v>
+        <v>71.93064527999037</v>
       </c>
       <c r="D18" t="n">
         <v>115.7281862028015</v>
@@ -23828,10 +23828,10 @@
         <v>105.1765168157536</v>
       </c>
       <c r="H18" t="n">
-        <v>2.906872454136753</v>
+        <v>62.85721528991136</v>
       </c>
       <c r="I18" t="n">
-        <v>14.70128436951477</v>
+        <v>14.70128436951475</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>93.09630611656611</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>154.7508334693185</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23910,10 +23910,10 @@
         <v>142.5679993783892</v>
       </c>
       <c r="I19" t="n">
-        <v>96.43258009724632</v>
+        <v>96.4325800972463</v>
       </c>
       <c r="J19" t="n">
-        <v>7.352495282391857</v>
+        <v>7.352495282391835</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,22 +23934,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.150849970123453</v>
+        <v>9.150849970123431</v>
       </c>
       <c r="R19" t="n">
-        <v>56.38567239618431</v>
+        <v>56.3856723961843</v>
       </c>
       <c r="S19" t="n">
         <v>173.6621429915595</v>
       </c>
       <c r="T19" t="n">
-        <v>43.26812015802324</v>
+        <v>234.4892545020035</v>
       </c>
       <c r="U19" t="n">
         <v>279.9361575053235</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>79.92575326589278</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -23977,19 +23977,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>216.8113975050881</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>197.2635504517529</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>403.2510401841353</v>
       </c>
       <c r="H20" t="n">
-        <v>293.5644734679276</v>
+        <v>196.77689104563</v>
       </c>
       <c r="I20" t="n">
-        <v>31.90177044380174</v>
+        <v>31.90177044380172</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>102.2545262986572</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>213.8998645763261</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>254.3786899365281</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>126.7826216427875</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>177.0804063786406</v>
+        <v>177.0804063786403</v>
       </c>
       <c r="Y20" t="n">
-        <v>177.3707488472944</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>132.6551205385437</v>
@@ -24065,10 +24065,10 @@
         <v>105.1765168157536</v>
       </c>
       <c r="H21" t="n">
-        <v>62.85721528991137</v>
+        <v>62.85721528991136</v>
       </c>
       <c r="I21" t="n">
-        <v>14.70128436951477</v>
+        <v>14.70128436951475</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>12.82588865527177</v>
+        <v>12.82588865527175</v>
       </c>
       <c r="S21" t="n">
         <v>93.09630611656611</v>
       </c>
       <c r="T21" t="n">
-        <v>81.9746019782721</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>183.3541688598741</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24129,10 +24129,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>136.0610026002392</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -24147,10 +24147,10 @@
         <v>142.5679993783892</v>
       </c>
       <c r="I22" t="n">
-        <v>96.43258009724632</v>
+        <v>96.4325800972463</v>
       </c>
       <c r="J22" t="n">
-        <v>7.352495282391857</v>
+        <v>7.352495282391835</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>9.150849970123431</v>
       </c>
       <c r="R22" t="n">
-        <v>56.38567239618431</v>
+        <v>56.3856723961843</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>173.6621429915595</v>
       </c>
       <c r="T22" t="n">
-        <v>226.0811131197063</v>
+        <v>234.4892545020035</v>
       </c>
       <c r="U22" t="n">
         <v>279.9361575053235</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>402.4235511641288</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U23" t="n">
         <v>254.3124908149276</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>388.6590969539762</v>
+        <v>262.3267207592472</v>
       </c>
     </row>
     <row r="24">
@@ -24296,7 +24296,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>104.7337711575492</v>
@@ -24335,13 +24335,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>152.9662577680471</v>
       </c>
       <c r="U24" t="n">
-        <v>81.63944942370524</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>99.8195081026409</v>
       </c>
     </row>
     <row r="25">
@@ -24375,10 +24375,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>68.14612782571683</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>139.2678442953623</v>
@@ -24420,13 +24420,13 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U25" t="n">
-        <v>15.36192872756646</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -24451,10 +24451,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>402.4235511641288</v>
@@ -24496,19 +24496,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>35.76675005626532</v>
+        <v>92.48683491363983</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -24527,7 +24527,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>115.3178193441573</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>119.2878878475953</v>
@@ -24575,7 +24575,7 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>115.3178193441572</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>71.4971780619129</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -24657,7 +24657,7 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -24669,7 +24669,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.9118878981628</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>347.9449740797763</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -24691,10 +24691,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>285.0899515417858</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>246.0442814475134</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>31.70179040321767</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24767,10 +24767,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>81.63944942370549</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>104.7337711575492</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="31">
@@ -24846,16 +24846,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>90.4367112552285</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>143.1602792671213</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I31" t="n">
         <v>85.27009235220248</v>
@@ -24894,7 +24894,7 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -24903,7 +24903,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>277.6184182956673</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H32" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T32" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.3124908149276</v>
@@ -24982,7 +24982,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>294.1786662001671</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -25001,19 +25001,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>56.11678357931511</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>45.76804586203401</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25049,7 +25049,7 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25086,7 +25086,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>19.1547249321105</v>
       </c>
       <c r="G34" t="n">
         <v>164.5832153864156</v>
@@ -25095,7 +25095,7 @@
         <v>139.2678442953623</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.27009235220248</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>39.69593104582557</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U34" t="n">
-        <v>269.2777890203424</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -25143,7 +25143,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,22 +25156,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>268.13641428056</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>294.265576251585</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T35" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.3124908149276</v>
@@ -25219,7 +25219,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25232,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C36" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>50.60972813379516</v>
       </c>
       <c r="E36" t="n">
-        <v>101.9505866532088</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>104.7337711575492</v>
@@ -25286,7 +25286,7 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>85.27009235220248</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>39.69593104582557</v>
       </c>
       <c r="S37" t="n">
-        <v>60.30964714420108</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T37" t="n">
         <v>232.9032904027983</v>
@@ -25380,7 +25380,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>166.9736914288926</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H38" t="n">
-        <v>89.68772212031178</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25450,13 +25450,13 @@
         <v>254.3124908149276</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>118.9540923723569</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25472,22 +25472,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25520,22 +25520,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>59.6772933242431</v>
       </c>
       <c r="T39" t="n">
-        <v>9.700677311374307</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>29.75544215597213</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5832153864156</v>
@@ -25569,7 +25569,7 @@
         <v>139.2678442953623</v>
       </c>
       <c r="I40" t="n">
-        <v>85.27009235220248</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>92.13033382050946</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25630,22 +25630,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>365.6142838832784</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H41" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>71.73182975176439</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -25712,13 +25712,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25757,22 +25757,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>157.525478464747</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>192.5022941338942</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>108.5706044367126</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -25794,7 +25794,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -25803,7 +25803,7 @@
         <v>164.5832153864156</v>
       </c>
       <c r="H43" t="n">
-        <v>139.2678442953623</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>85.27009235220248</v>
@@ -25848,13 +25848,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>39.14764908451261</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>149.019572222702</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>383.3633737668175</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U44" t="n">
         <v>254.3124908149276</v>
@@ -25933,7 +25933,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25952,16 +25952,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>81.63944942370549</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>152.9662577680471</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>49.6551974454265</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>11.72498541865991</v>
+        <v>20.49400896390753</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>245792.5617230043</v>
+        <v>245792.5617230044</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>245792.5617230043</v>
+        <v>245792.5617230044</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>245792.5617230043</v>
+        <v>245792.5617230044</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>390816.7152561254</v>
+        <v>390816.7152561252</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>390816.7152561253</v>
+        <v>390816.7152561252</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>390816.7152561254</v>
+        <v>390816.7152561253</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>390816.7152561253</v>
+        <v>390816.7152561254</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>390816.7152561253</v>
+        <v>390816.7152561252</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>374629.5039746508</v>
       </c>
       <c r="C2" t="n">
-        <v>374629.5039746512</v>
+        <v>374629.503974651</v>
       </c>
       <c r="D2" t="n">
         <v>374629.5039746509</v>
       </c>
       <c r="E2" t="n">
-        <v>120281.4663750872</v>
+        <v>120281.4663750873</v>
       </c>
       <c r="F2" t="n">
-        <v>120281.4663750872</v>
+        <v>120281.4663750873</v>
       </c>
       <c r="G2" t="n">
-        <v>120281.4663750872</v>
+        <v>120281.4663750873</v>
       </c>
       <c r="H2" t="n">
-        <v>120281.4663750872</v>
+        <v>120281.4663750873</v>
       </c>
       <c r="I2" t="n">
         <v>191250.7329976784</v>
@@ -26340,13 +26340,13 @@
         <v>191250.7329976784</v>
       </c>
       <c r="K2" t="n">
-        <v>191250.7329976783</v>
+        <v>191250.7329976784</v>
       </c>
       <c r="L2" t="n">
         <v>191250.7329976784</v>
       </c>
       <c r="M2" t="n">
-        <v>191250.7329976785</v>
+        <v>191250.7329976784</v>
       </c>
       <c r="N2" t="n">
         <v>191250.7329976784</v>
@@ -26355,7 +26355,7 @@
         <v>191250.7329976784</v>
       </c>
       <c r="P2" t="n">
-        <v>191250.7329976783</v>
+        <v>191250.7329976784</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161638.275323996</v>
+        <v>161638.2753239961</v>
       </c>
       <c r="C3" t="n">
-        <v>33515.897007049</v>
+        <v>33515.89700704826</v>
       </c>
       <c r="D3" t="n">
-        <v>19448.89199835589</v>
+        <v>19448.89199835659</v>
       </c>
       <c r="E3" t="n">
-        <v>159951.5942517146</v>
+        <v>159951.5942517148</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,16 +26386,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>222021.1128848243</v>
+        <v>222021.1128848241</v>
       </c>
       <c r="J3" t="n">
         <v>5276.568751535034</v>
       </c>
       <c r="K3" t="n">
-        <v>5659.588567964534</v>
+        <v>5659.588567964389</v>
       </c>
       <c r="L3" t="n">
-        <v>4159.855104138381</v>
+        <v>4159.855104138552</v>
       </c>
       <c r="M3" t="n">
         <v>40112.6531128393</v>
@@ -26420,22 +26420,22 @@
         <v>317047.9661295118</v>
       </c>
       <c r="C4" t="n">
-        <v>306921.1165553508</v>
+        <v>306921.1165553511</v>
       </c>
       <c r="D4" t="n">
         <v>300714.8056093826</v>
       </c>
       <c r="E4" t="n">
+        <v>155.6503797250004</v>
+      </c>
+      <c r="F4" t="n">
+        <v>155.6503797250004</v>
+      </c>
+      <c r="G4" t="n">
         <v>155.6503797250003</v>
       </c>
-      <c r="F4" t="n">
-        <v>155.6503797250003</v>
-      </c>
-      <c r="G4" t="n">
-        <v>155.6503797250002</v>
-      </c>
       <c r="H4" t="n">
-        <v>155.6503797250002</v>
+        <v>155.6503797250004</v>
       </c>
       <c r="I4" t="n">
         <v>331.9759880256581</v>
@@ -26459,7 +26459,7 @@
         <v>331.9759880256581</v>
       </c>
       <c r="P4" t="n">
-        <v>331.9759880256582</v>
+        <v>331.9759880256581</v>
       </c>
     </row>
     <row r="5">
@@ -26472,22 +26472,22 @@
         <v>38357.62869214527</v>
       </c>
       <c r="C5" t="n">
-        <v>40326.93285643186</v>
+        <v>40326.93285643181</v>
       </c>
       <c r="D5" t="n">
         <v>41691.36276625771</v>
       </c>
       <c r="E5" t="n">
-        <v>20886.45015162829</v>
+        <v>20886.4501516283</v>
       </c>
       <c r="F5" t="n">
-        <v>20886.45015162829</v>
+        <v>20886.4501516283</v>
       </c>
       <c r="G5" t="n">
-        <v>20886.45015162828</v>
+        <v>20886.4501516283</v>
       </c>
       <c r="H5" t="n">
-        <v>20886.45015162828</v>
+        <v>20886.4501516283</v>
       </c>
       <c r="I5" t="n">
         <v>40710.1211392429</v>
@@ -26524,46 +26524,46 @@
         <v>-142414.3661710023</v>
       </c>
       <c r="C6" t="n">
-        <v>-6134.442444180531</v>
+        <v>-6134.442444180073</v>
       </c>
       <c r="D6" t="n">
-        <v>12774.44360065462</v>
+        <v>12774.44360065398</v>
       </c>
       <c r="E6" t="n">
-        <v>-60712.22840798069</v>
+        <v>-61818.08944102233</v>
       </c>
       <c r="F6" t="n">
-        <v>99239.36584373395</v>
+        <v>98133.50481069245</v>
       </c>
       <c r="G6" t="n">
-        <v>99239.36584373396</v>
+        <v>98133.50481069245</v>
       </c>
       <c r="H6" t="n">
-        <v>99239.36584373395</v>
+        <v>98133.50481069245</v>
       </c>
       <c r="I6" t="n">
-        <v>-71812.47701441447</v>
+        <v>-72609.77601866197</v>
       </c>
       <c r="J6" t="n">
-        <v>144932.0671188748</v>
+        <v>144134.7681146271</v>
       </c>
       <c r="K6" t="n">
-        <v>144549.0473024452</v>
+        <v>143751.7482981977</v>
       </c>
       <c r="L6" t="n">
-        <v>146048.7807662715</v>
+        <v>145251.4817620236</v>
       </c>
       <c r="M6" t="n">
-        <v>110095.9827575706</v>
+        <v>109298.6837533228</v>
       </c>
       <c r="N6" t="n">
-        <v>150208.6358704098</v>
+        <v>149411.3368661622</v>
       </c>
       <c r="O6" t="n">
-        <v>150208.6358704098</v>
+        <v>149411.3368661621</v>
       </c>
       <c r="P6" t="n">
-        <v>150208.6358704098</v>
+        <v>149411.3368661622</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.728277023365</v>
+        <v>160.7282770233651</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7327042722675</v>
+        <v>189.7327042722669</v>
       </c>
       <c r="D3" t="n">
         <v>206.4808123114659</v>
       </c>
       <c r="E3" t="n">
-        <v>345.7528191377624</v>
+        <v>345.7528191377625</v>
       </c>
       <c r="F3" t="n">
-        <v>345.7528191377624</v>
+        <v>345.7528191377625</v>
       </c>
       <c r="G3" t="n">
-        <v>345.7528191377623</v>
+        <v>345.7528191377625</v>
       </c>
       <c r="H3" t="n">
-        <v>345.7528191377623</v>
+        <v>345.7528191377625</v>
       </c>
       <c r="I3" t="n">
         <v>551.5907128643867</v>
@@ -26792,22 +26792,22 @@
         <v>20.16697784598549</v>
       </c>
       <c r="C4" t="n">
-        <v>42.15723525158589</v>
+        <v>42.15723525158528</v>
       </c>
       <c r="D4" t="n">
         <v>58.59343845177214</v>
       </c>
       <c r="E4" t="n">
-        <v>219.5565574740965</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="F4" t="n">
-        <v>219.5565574740965</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="G4" t="n">
-        <v>219.5565574740965</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="H4" t="n">
-        <v>219.5565574740964</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="I4" t="n">
         <v>471.8000591907775</v>
@@ -26828,10 +26828,10 @@
         <v>471.8000591907774</v>
       </c>
       <c r="O4" t="n">
-        <v>471.8000591907775</v>
+        <v>471.8000591907774</v>
       </c>
       <c r="P4" t="n">
-        <v>471.8000591907775</v>
+        <v>471.8000591907774</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.728277023365</v>
+        <v>160.7282770233651</v>
       </c>
       <c r="C3" t="n">
-        <v>29.00442724890249</v>
+        <v>29.00442724890189</v>
       </c>
       <c r="D3" t="n">
-        <v>16.74810803919837</v>
+        <v>16.74810803919897</v>
       </c>
       <c r="E3" t="n">
-        <v>139.2720068262965</v>
+        <v>139.2720068262966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>205.8378937266243</v>
+        <v>205.8378937266241</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>20.16697784598549</v>
       </c>
       <c r="C4" t="n">
-        <v>21.9902574056004</v>
+        <v>21.99025740559979</v>
       </c>
       <c r="D4" t="n">
-        <v>16.43620320018626</v>
+        <v>16.43620320018687</v>
       </c>
       <c r="E4" t="n">
-        <v>160.9631190223243</v>
+        <v>160.9631190223244</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,16 +27032,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>252.2435017166811</v>
+        <v>252.2435017166809</v>
       </c>
       <c r="J4" t="n">
         <v>20.16697784598551</v>
       </c>
       <c r="K4" t="n">
-        <v>21.99025740560029</v>
+        <v>21.99025740559972</v>
       </c>
       <c r="L4" t="n">
-        <v>16.43620320018642</v>
+        <v>16.43620320018709</v>
       </c>
       <c r="M4" t="n">
         <v>160.9631190223243</v>
@@ -27260,13 +27260,13 @@
         <v>20.16697784598549</v>
       </c>
       <c r="K4" t="n">
-        <v>21.9902574056004</v>
+        <v>21.99025740559979</v>
       </c>
       <c r="L4" t="n">
-        <v>16.43620320018626</v>
+        <v>16.43620320018687</v>
       </c>
       <c r="M4" t="n">
-        <v>160.9631190223243</v>
+        <v>160.9631190223244</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,28 +27384,28 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>382.3239046463545</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>398.4960250534734</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>383.827879592881</v>
       </c>
       <c r="H2" t="n">
         <v>301.182091927944</v>
       </c>
       <c r="I2" t="n">
-        <v>60.5777851568281</v>
+        <v>60.57778515682809</v>
       </c>
       <c r="J2" t="n">
-        <v>18.48294167697898</v>
+        <v>18.48294167697897</v>
       </c>
       <c r="K2" t="n">
-        <v>6.944471810258861</v>
+        <v>6.944471810258847</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27420,13 +27420,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7330732454824727</v>
+        <v>0.7330732454824584</v>
       </c>
       <c r="Q2" t="n">
         <v>20.2575401764107</v>
       </c>
       <c r="R2" t="n">
-        <v>46.72381062751164</v>
+        <v>46.72381062751163</v>
       </c>
       <c r="S2" t="n">
         <v>119.2042619908454</v>
@@ -27466,10 +27466,10 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>99.1209100016098</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>87.70330317333497</v>
       </c>
       <c r="G3" t="n">
         <v>105.5744941327544</v>
@@ -27481,7 +27481,7 @@
         <v>28.40357357326966</v>
       </c>
       <c r="J3" t="n">
-        <v>18.70652356075183</v>
+        <v>13.50554180443129</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>17.36841475429958</v>
       </c>
       <c r="S3" t="n">
-        <v>80.32158238241527</v>
+        <v>100.4885602284008</v>
       </c>
       <c r="T3" t="n">
-        <v>136.1879834931738</v>
+        <v>156.3549613391593</v>
       </c>
       <c r="U3" t="n">
-        <v>190.1535764293396</v>
+        <v>195.3545581856602</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
@@ -27560,28 +27560,28 @@
         <v>106.4663700204336</v>
       </c>
       <c r="J4" t="n">
-        <v>30.94160780737002</v>
+        <v>30.94160780737001</v>
       </c>
       <c r="K4" t="n">
         <v>18.57647807777823</v>
       </c>
       <c r="L4" t="n">
-        <v>11.53730631291607</v>
+        <v>11.53730631291606</v>
       </c>
       <c r="M4" t="n">
-        <v>10.83153789691312</v>
+        <v>10.83153789691311</v>
       </c>
       <c r="N4" t="n">
-        <v>7.359545719332473</v>
+        <v>7.359545719332466</v>
       </c>
       <c r="O4" t="n">
-        <v>15.10763166054911</v>
+        <v>15.1076316605491</v>
       </c>
       <c r="P4" t="n">
-        <v>20.72526791008762</v>
+        <v>20.72526791008761</v>
       </c>
       <c r="Q4" t="n">
-        <v>37.08955582939745</v>
+        <v>37.08955582939744</v>
       </c>
       <c r="R4" t="n">
         <v>71.38782625352545</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>363.9617326162587</v>
+        <v>373.7839292417922</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27630,16 +27630,16 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>361.7210214747222</v>
+        <v>361.7210214747228</v>
       </c>
       <c r="H5" t="n">
-        <v>261.8241584392462</v>
+        <v>299.9879548804553</v>
       </c>
       <c r="I5" t="n">
-        <v>56.0825361859203</v>
+        <v>56.08253618592039</v>
       </c>
       <c r="J5" t="n">
-        <v>8.586601949475309</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>39.39939111726491</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>116.5472232534209</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96.74276705764487</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
-        <v>90.49788528695785</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
-        <v>73.57095095121559</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
-        <v>119.2878878475953</v>
+        <v>83.6649570628915</v>
       </c>
       <c r="F6" t="n">
-        <v>107.8702810193205</v>
+        <v>65.71304576773518</v>
       </c>
       <c r="G6" t="n">
-        <v>105.5121072515021</v>
+        <v>63.35487199991679</v>
       </c>
       <c r="H6" t="n">
-        <v>66.09831239306061</v>
+        <v>66.09831239306062</v>
       </c>
       <c r="I6" t="n">
-        <v>26.25560419681792</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>33.66193342919578</v>
+        <v>33.66193342919586</v>
       </c>
       <c r="S6" t="n">
-        <v>99.32975127180546</v>
+        <v>99.32975127180548</v>
       </c>
       <c r="T6" t="n">
-        <v>156.1034984274447</v>
+        <v>156.1034984274448</v>
       </c>
       <c r="U6" t="n">
         <v>195.3504537855778</v>
@@ -27763,7 +27763,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
-        <v>138.086640309871</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="7">
@@ -27797,34 +27797,34 @@
         <v>104.8934741951981</v>
       </c>
       <c r="J7" t="n">
-        <v>27.2437810743419</v>
+        <v>27.24378107434198</v>
       </c>
       <c r="K7" t="n">
-        <v>12.4998128279262</v>
+        <v>12.49981282792632</v>
       </c>
       <c r="L7" t="n">
-        <v>3.761266915726694</v>
+        <v>3.761266915726857</v>
       </c>
       <c r="M7" t="n">
-        <v>2.001365449736205</v>
+        <v>2.632794633752205</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>7.714831088976382</v>
+        <v>7.714831088976538</v>
       </c>
       <c r="P7" t="n">
-        <v>14.39944987534337</v>
+        <v>14.3994498753435</v>
       </c>
       <c r="Q7" t="n">
-        <v>32.70988731481317</v>
+        <v>32.70988731481326</v>
       </c>
       <c r="R7" t="n">
-        <v>69.03609023429476</v>
+        <v>68.40466105027913</v>
       </c>
       <c r="S7" t="n">
-        <v>178.5652669292177</v>
+        <v>178.5652669292178</v>
       </c>
       <c r="T7" t="n">
         <v>235.6913766985081</v>
@@ -27858,10 +27858,10 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>399.389856326881</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>351.6033748765001</v>
+        <v>369.3100321773073</v>
       </c>
       <c r="F8" t="n">
         <v>358.2266694740771</v>
@@ -27873,7 +27873,7 @@
         <v>299.2984209650525</v>
       </c>
       <c r="I8" t="n">
-        <v>53.48683192388534</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>35.17003094995921</v>
       </c>
       <c r="S8" t="n">
         <v>115.0129618988752</v>
@@ -27940,13 +27940,13 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E9" t="n">
-        <v>119.2878878475953</v>
+        <v>74.93474746453589</v>
       </c>
       <c r="F9" t="n">
-        <v>107.8702810193205</v>
+        <v>49.27684256754831</v>
       </c>
       <c r="G9" t="n">
-        <v>105.4760830191159</v>
+        <v>46.88264456734372</v>
       </c>
       <c r="H9" t="n">
         <v>65.75039414869914</v>
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>40.06717850356156</v>
+        <v>98.66061695533371</v>
       </c>
       <c r="T9" t="n">
-        <v>97.36485703899315</v>
+        <v>155.9582954907653</v>
       </c>
       <c r="U9" t="n">
-        <v>150.9949433872298</v>
+        <v>195.3480837702892</v>
       </c>
       <c r="V9" t="n">
         <v>211.5744117368965</v>
@@ -28037,7 +28037,7 @@
         <v>25.10853457891821</v>
       </c>
       <c r="K10" t="n">
-        <v>1.055855366944059</v>
+        <v>4.50184081996214</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28049,7 +28049,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>3.445985453018082</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>10.74671496790903</v>
@@ -31041,19 +31041,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6461438272296076</v>
+        <v>0.6461438272296077</v>
       </c>
       <c r="H2" t="n">
-        <v>6.617320470615221</v>
+        <v>6.617320470615222</v>
       </c>
       <c r="I2" t="n">
-        <v>24.91045989926947</v>
+        <v>24.91045989926948</v>
       </c>
       <c r="J2" t="n">
-        <v>54.84064965632896</v>
+        <v>54.84064965632897</v>
       </c>
       <c r="K2" t="n">
-        <v>82.19191786295826</v>
+        <v>82.19191786295828</v>
       </c>
       <c r="L2" t="n">
         <v>101.9663420155364</v>
@@ -31065,10 +31065,10 @@
         <v>113.0792686026048</v>
       </c>
       <c r="O2" t="n">
-        <v>108.8679657701326</v>
+        <v>108.8679657701327</v>
       </c>
       <c r="P2" t="n">
-        <v>92.91629003540169</v>
+        <v>92.9162900354017</v>
       </c>
       <c r="Q2" t="n">
         <v>69.77626422274135</v>
@@ -31083,7 +31083,7 @@
         <v>2.828494603697609</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0516915061783686</v>
+        <v>0.05169150617836861</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,10 +31120,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3457174260502568</v>
+        <v>0.3457174260502569</v>
       </c>
       <c r="H3" t="n">
-        <v>3.338902509485376</v>
+        <v>3.338902509485377</v>
       </c>
       <c r="I3" t="n">
         <v>11.90299032673034</v>
@@ -31132,10 +31132,10 @@
         <v>32.66271523924818</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461538</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>63.70944394132486</v>
+        <v>63.70944394132483</v>
       </c>
       <c r="M3" t="n">
         <v>77.73126158440292</v>
@@ -31147,22 +31147,22 @@
         <v>77.91845684598547</v>
       </c>
       <c r="P3" t="n">
-        <v>66.01686533059686</v>
+        <v>66.01686533059687</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13052617441524</v>
+        <v>44.13052617441525</v>
       </c>
       <c r="R3" t="n">
-        <v>21.46480650512034</v>
+        <v>21.46480650512035</v>
       </c>
       <c r="S3" t="n">
-        <v>6.421549558433495</v>
+        <v>6.421549558433496</v>
       </c>
       <c r="T3" t="n">
         <v>1.39348383570257</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02274456750330638</v>
+        <v>0.02274456750330639</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,37 +31205,37 @@
         <v>2.576922211948379</v>
       </c>
       <c r="I4" t="n">
-        <v>8.716215416283468</v>
+        <v>8.71621541628347</v>
       </c>
       <c r="J4" t="n">
-        <v>20.4915378755854</v>
+        <v>20.49153787558541</v>
       </c>
       <c r="K4" t="n">
-        <v>33.67389148128859</v>
+        <v>33.6738914812886</v>
       </c>
       <c r="L4" t="n">
-        <v>43.09098758098544</v>
+        <v>43.09098758098545</v>
       </c>
       <c r="M4" t="n">
         <v>45.43340460186693</v>
       </c>
       <c r="N4" t="n">
-        <v>44.35309978908697</v>
+        <v>44.35309978908698</v>
       </c>
       <c r="O4" t="n">
         <v>40.96726641244722</v>
       </c>
       <c r="P4" t="n">
-        <v>35.05457372981716</v>
+        <v>35.05457372981717</v>
       </c>
       <c r="Q4" t="n">
         <v>24.26996983052812</v>
       </c>
       <c r="R4" t="n">
-        <v>13.0321648878289</v>
+        <v>13.03216488782891</v>
       </c>
       <c r="S4" t="n">
-        <v>5.051083722193288</v>
+        <v>5.051083722193289</v>
       </c>
       <c r="T4" t="n">
         <v>1.238398200016091</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7627445397880096</v>
+        <v>0.7627445397880073</v>
       </c>
       <c r="H5" t="n">
-        <v>7.811457518103956</v>
+        <v>7.811457518103931</v>
       </c>
       <c r="I5" t="n">
-        <v>29.40570887017727</v>
+        <v>29.40570887017718</v>
       </c>
       <c r="J5" t="n">
-        <v>64.73698938383264</v>
+        <v>64.73698938383244</v>
       </c>
       <c r="K5" t="n">
-        <v>97.0239657530591</v>
+        <v>97.0239657530588</v>
       </c>
       <c r="L5" t="n">
-        <v>120.3668089625964</v>
+        <v>120.3668089625961</v>
       </c>
       <c r="M5" t="n">
-        <v>133.9312671720514</v>
+        <v>133.931267172051</v>
       </c>
       <c r="N5" t="n">
-        <v>135.0695260082052</v>
+        <v>135.0695260082046</v>
       </c>
       <c r="O5" t="n">
-        <v>128.5138740782071</v>
+        <v>128.5138740782067</v>
       </c>
       <c r="P5" t="n">
-        <v>109.6836182521906</v>
+        <v>109.6836182521903</v>
       </c>
       <c r="Q5" t="n">
-        <v>82.36782942103248</v>
+        <v>82.36782942103223</v>
       </c>
       <c r="R5" t="n">
-        <v>47.9127516974586</v>
+        <v>47.91275169745845</v>
       </c>
       <c r="S5" t="n">
-        <v>17.38104120041929</v>
+        <v>17.38104120041923</v>
       </c>
       <c r="T5" t="n">
-        <v>3.338914222922014</v>
+        <v>3.338914222922003</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06101956318304076</v>
+        <v>0.06101956318304057</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4081043073026132</v>
+        <v>0.4081043073026119</v>
       </c>
       <c r="H6" t="n">
-        <v>3.941428441580502</v>
+        <v>3.94142844158049</v>
       </c>
       <c r="I6" t="n">
-        <v>14.05095970318208</v>
+        <v>14.05095970318204</v>
       </c>
       <c r="J6" t="n">
-        <v>38.55690738423505</v>
+        <v>38.55690738423493</v>
       </c>
       <c r="K6" t="n">
-        <v>65.89989597351014</v>
+        <v>65.89989597350993</v>
       </c>
       <c r="L6" t="n">
-        <v>88.61054268866609</v>
+        <v>88.61054268866582</v>
       </c>
       <c r="M6" t="n">
-        <v>99.72151899000332</v>
+        <v>76.74522910167173</v>
       </c>
       <c r="N6" t="n">
-        <v>72.37433875700506</v>
+        <v>95.35062864533526</v>
       </c>
       <c r="O6" t="n">
-        <v>97.09839630809148</v>
+        <v>97.09839630809118</v>
       </c>
       <c r="P6" t="n">
-        <v>77.93002338307534</v>
+        <v>77.93002338307508</v>
       </c>
       <c r="Q6" t="n">
-        <v>52.0941568409441</v>
+        <v>52.09415684094394</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33826567620963</v>
+        <v>25.33826567620955</v>
       </c>
       <c r="S6" t="n">
-        <v>7.580358515028798</v>
+        <v>7.580358515028774</v>
       </c>
       <c r="T6" t="n">
-        <v>1.644946747417111</v>
+        <v>1.644946747417106</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02684896758569825</v>
+        <v>0.02684896758569816</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3421409421303185</v>
+        <v>0.3421409421303174</v>
       </c>
       <c r="H7" t="n">
-        <v>3.041944012758652</v>
+        <v>3.041944012758643</v>
       </c>
       <c r="I7" t="n">
-        <v>10.28911124151904</v>
+        <v>10.289111241519</v>
       </c>
       <c r="J7" t="n">
-        <v>24.18936460861352</v>
+        <v>24.18936460861344</v>
       </c>
       <c r="K7" t="n">
-        <v>39.75055673114063</v>
+        <v>39.75055673114051</v>
       </c>
       <c r="L7" t="n">
-        <v>50.86702697817481</v>
+        <v>50.86702697817465</v>
       </c>
       <c r="M7" t="n">
-        <v>53.63214786502801</v>
+        <v>53.63214786502784</v>
       </c>
       <c r="N7" t="n">
-        <v>52.35689526254232</v>
+        <v>52.35689526254215</v>
       </c>
       <c r="O7" t="n">
-        <v>48.36006698401994</v>
+        <v>48.36006698401979</v>
       </c>
       <c r="P7" t="n">
-        <v>41.38039176456141</v>
+        <v>41.38039176456128</v>
       </c>
       <c r="Q7" t="n">
-        <v>28.6496383451124</v>
+        <v>28.64963834511231</v>
       </c>
       <c r="R7" t="n">
-        <v>15.38390090705959</v>
+        <v>15.38390090705954</v>
       </c>
       <c r="S7" t="n">
-        <v>5.962583509671093</v>
+        <v>5.962583509671075</v>
       </c>
       <c r="T7" t="n">
-        <v>1.461874934556815</v>
+        <v>1.46187493455681</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0186622332071083</v>
+        <v>0.01866223320710824</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31533,7 +31533,7 @@
         <v>130.9918423672027</v>
       </c>
       <c r="M8" t="n">
-        <v>145.75366405944</v>
+        <v>145.7536640594399</v>
       </c>
       <c r="N8" t="n">
         <v>148.112110724686</v>
@@ -31542,7 +31542,7 @@
         <v>139.8580661923357</v>
       </c>
       <c r="P8" t="n">
-        <v>119.365623764439</v>
+        <v>119.3656237644389</v>
       </c>
       <c r="Q8" t="n">
         <v>89.63861234371784</v>
@@ -31758,10 +31758,10 @@
         <v>14.23493893063159</v>
       </c>
       <c r="I11" t="n">
-        <v>53.58647461229583</v>
+        <v>53.58647461229585</v>
       </c>
       <c r="J11" t="n">
-        <v>117.971209380075</v>
+        <v>117.9712093800751</v>
       </c>
       <c r="K11" t="n">
         <v>176.808261979478</v>
@@ -31776,22 +31776,22 @@
         <v>248.0142307569801</v>
       </c>
       <c r="O11" t="n">
-        <v>234.1928052482318</v>
+        <v>234.1928052482319</v>
       </c>
       <c r="P11" t="n">
-        <v>199.8781410373232</v>
+        <v>199.8781410373233</v>
       </c>
       <c r="Q11" t="n">
         <v>150.1001597896002</v>
       </c>
       <c r="R11" t="n">
-        <v>87.3121428147235</v>
+        <v>87.31214281472353</v>
       </c>
       <c r="S11" t="n">
         <v>31.67373815518297</v>
       </c>
       <c r="T11" t="n">
-        <v>6.084554636283636</v>
+        <v>6.084554636283638</v>
       </c>
       <c r="U11" t="n">
         <v>0.1111968865568682</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7436947430510361</v>
+        <v>0.7436947430510363</v>
       </c>
       <c r="H12" t="n">
-        <v>7.182525544729745</v>
+        <v>7.182525544729748</v>
       </c>
       <c r="I12" t="n">
-        <v>25.60527953048524</v>
+        <v>25.60527953048525</v>
       </c>
       <c r="J12" t="n">
-        <v>70.26284412308058</v>
+        <v>70.2628441230806</v>
       </c>
       <c r="K12" t="n">
         <v>120.0903919075</v>
@@ -31852,28 +31852,28 @@
         <v>188.4352864300805</v>
       </c>
       <c r="N12" t="n">
-        <v>193.4226077551903</v>
+        <v>193.4226077551904</v>
       </c>
       <c r="O12" t="n">
-        <v>176.9438979223226</v>
+        <v>176.9438979223227</v>
       </c>
       <c r="P12" t="n">
-        <v>142.0130777322632</v>
+        <v>142.0130777322633</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.93198158665507</v>
+        <v>94.93198158665511</v>
       </c>
       <c r="R12" t="n">
-        <v>46.17431045013365</v>
+        <v>46.17431045013366</v>
       </c>
       <c r="S12" t="n">
-        <v>13.81380367026814</v>
+        <v>13.81380367026815</v>
       </c>
       <c r="T12" t="n">
-        <v>2.997611705543429</v>
+        <v>2.99761170554343</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04892728572704187</v>
+        <v>0.04892728572704189</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6234886902484239</v>
+        <v>0.6234886902484241</v>
       </c>
       <c r="H13" t="n">
-        <v>5.543381264208719</v>
+        <v>5.543381264208721</v>
       </c>
       <c r="I13" t="n">
-        <v>18.75000533947079</v>
+        <v>18.7500053394708</v>
       </c>
       <c r="J13" t="n">
-        <v>44.08065040056357</v>
+        <v>44.08065040056358</v>
       </c>
       <c r="K13" t="n">
-        <v>72.43804964886233</v>
+        <v>72.43804964886235</v>
       </c>
       <c r="L13" t="n">
-        <v>92.69576400293388</v>
+        <v>92.69576400293391</v>
       </c>
       <c r="M13" t="n">
-        <v>97.73468623594157</v>
+        <v>97.7346862359416</v>
       </c>
       <c r="N13" t="n">
-        <v>95.4107738450157</v>
+        <v>95.41077384501574</v>
       </c>
       <c r="O13" t="n">
-        <v>88.12729232711362</v>
+        <v>88.12729232711365</v>
       </c>
       <c r="P13" t="n">
-        <v>75.40812304604572</v>
+        <v>75.40812304604574</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.20867568980212</v>
+        <v>52.20867568980213</v>
       </c>
       <c r="R13" t="n">
-        <v>28.03431874517004</v>
+        <v>28.03431874517005</v>
       </c>
       <c r="S13" t="n">
         <v>10.86570744732935</v>
       </c>
       <c r="T13" t="n">
-        <v>2.663997131061447</v>
+        <v>2.663997131061448</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03400847401355044</v>
+        <v>0.03400847401355045</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,10 +31995,10 @@
         <v>14.23493893063159</v>
       </c>
       <c r="I14" t="n">
-        <v>53.58647461229583</v>
+        <v>53.58647461229585</v>
       </c>
       <c r="J14" t="n">
-        <v>117.971209380075</v>
+        <v>117.9712093800751</v>
       </c>
       <c r="K14" t="n">
         <v>176.808261979478</v>
@@ -32013,22 +32013,22 @@
         <v>248.0142307569801</v>
       </c>
       <c r="O14" t="n">
-        <v>234.1928052482318</v>
+        <v>234.1928052482319</v>
       </c>
       <c r="P14" t="n">
-        <v>199.8781410373232</v>
+        <v>199.8781410373233</v>
       </c>
       <c r="Q14" t="n">
         <v>150.1001597896002</v>
       </c>
       <c r="R14" t="n">
-        <v>87.3121428147235</v>
+        <v>87.31214281472353</v>
       </c>
       <c r="S14" t="n">
         <v>31.67373815518297</v>
       </c>
       <c r="T14" t="n">
-        <v>6.084554636283636</v>
+        <v>6.084554636283638</v>
       </c>
       <c r="U14" t="n">
         <v>0.1111968865568682</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7436947430510361</v>
+        <v>0.7436947430510363</v>
       </c>
       <c r="H15" t="n">
-        <v>7.182525544729745</v>
+        <v>7.182525544729748</v>
       </c>
       <c r="I15" t="n">
-        <v>25.60527953048524</v>
+        <v>25.60527953048525</v>
       </c>
       <c r="J15" t="n">
-        <v>70.26284412308058</v>
+        <v>70.2628441230806</v>
       </c>
       <c r="K15" t="n">
         <v>120.0903919075</v>
@@ -32089,28 +32089,28 @@
         <v>188.4352864300805</v>
       </c>
       <c r="N15" t="n">
-        <v>193.4226077551903</v>
+        <v>193.4226077551904</v>
       </c>
       <c r="O15" t="n">
-        <v>176.9438979223226</v>
+        <v>176.9438979223227</v>
       </c>
       <c r="P15" t="n">
-        <v>142.0130777322632</v>
+        <v>142.0130777322633</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.93198158665507</v>
+        <v>94.93198158665511</v>
       </c>
       <c r="R15" t="n">
-        <v>46.17431045013365</v>
+        <v>46.17431045013366</v>
       </c>
       <c r="S15" t="n">
-        <v>13.81380367026814</v>
+        <v>13.81380367026815</v>
       </c>
       <c r="T15" t="n">
-        <v>2.997611705543429</v>
+        <v>2.99761170554343</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04892728572704187</v>
+        <v>0.04892728572704189</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6234886902484239</v>
+        <v>0.6234886902484241</v>
       </c>
       <c r="H16" t="n">
-        <v>5.543381264208719</v>
+        <v>5.543381264208721</v>
       </c>
       <c r="I16" t="n">
-        <v>18.75000533947079</v>
+        <v>18.7500053394708</v>
       </c>
       <c r="J16" t="n">
-        <v>44.08065040056357</v>
+        <v>44.08065040056358</v>
       </c>
       <c r="K16" t="n">
-        <v>72.43804964886233</v>
+        <v>72.43804964886235</v>
       </c>
       <c r="L16" t="n">
-        <v>92.69576400293388</v>
+        <v>92.69576400293391</v>
       </c>
       <c r="M16" t="n">
-        <v>97.73468623594157</v>
+        <v>97.7346862359416</v>
       </c>
       <c r="N16" t="n">
-        <v>95.4107738450157</v>
+        <v>95.41077384501574</v>
       </c>
       <c r="O16" t="n">
-        <v>88.12729232711362</v>
+        <v>88.12729232711365</v>
       </c>
       <c r="P16" t="n">
-        <v>75.40812304604572</v>
+        <v>75.40812304604574</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.20867568980212</v>
+        <v>52.20867568980213</v>
       </c>
       <c r="R16" t="n">
-        <v>28.03431874517004</v>
+        <v>28.03431874517005</v>
       </c>
       <c r="S16" t="n">
         <v>10.86570744732935</v>
       </c>
       <c r="T16" t="n">
-        <v>2.663997131061447</v>
+        <v>2.663997131061448</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03400847401355044</v>
+        <v>0.03400847401355045</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,40 +32232,40 @@
         <v>14.23493893063159</v>
       </c>
       <c r="I17" t="n">
-        <v>53.58647461229582</v>
+        <v>53.58647461229585</v>
       </c>
       <c r="J17" t="n">
-        <v>117.971209380075</v>
+        <v>117.9712093800751</v>
       </c>
       <c r="K17" t="n">
-        <v>176.8082619794779</v>
+        <v>176.808261979478</v>
       </c>
       <c r="L17" t="n">
-        <v>219.3462834415374</v>
+        <v>219.3462834415375</v>
       </c>
       <c r="M17" t="n">
-        <v>244.0650038328587</v>
+        <v>244.0650038328588</v>
       </c>
       <c r="N17" t="n">
-        <v>248.01423075698</v>
+        <v>248.0142307569801</v>
       </c>
       <c r="O17" t="n">
-        <v>234.1928052482318</v>
+        <v>234.1928052482319</v>
       </c>
       <c r="P17" t="n">
-        <v>199.8781410373232</v>
+        <v>199.8781410373233</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.1001597896001</v>
+        <v>150.1001597896002</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472349</v>
+        <v>87.31214281472353</v>
       </c>
       <c r="S17" t="n">
-        <v>31.67373815518296</v>
+        <v>31.67373815518297</v>
       </c>
       <c r="T17" t="n">
-        <v>6.084554636283635</v>
+        <v>6.084554636283638</v>
       </c>
       <c r="U17" t="n">
         <v>0.1111968865568682</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.743694743051036</v>
+        <v>0.7436947430510363</v>
       </c>
       <c r="H18" t="n">
-        <v>7.182525544729744</v>
+        <v>7.182525544729748</v>
       </c>
       <c r="I18" t="n">
-        <v>25.60527953048523</v>
+        <v>25.60527953048525</v>
       </c>
       <c r="J18" t="n">
-        <v>70.26284412308057</v>
+        <v>70.2628441230806</v>
       </c>
       <c r="K18" t="n">
         <v>120.0903919075</v>
       </c>
       <c r="L18" t="n">
-        <v>161.4763519944804</v>
+        <v>161.4763519944805</v>
       </c>
       <c r="M18" t="n">
         <v>188.4352864300805</v>
       </c>
       <c r="N18" t="n">
-        <v>193.4226077551903</v>
+        <v>193.4226077551904</v>
       </c>
       <c r="O18" t="n">
-        <v>176.9438979223226</v>
+        <v>176.9438979223227</v>
       </c>
       <c r="P18" t="n">
-        <v>142.0130777322632</v>
+        <v>142.0130777322633</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.93198158665506</v>
+        <v>94.93198158665511</v>
       </c>
       <c r="R18" t="n">
-        <v>46.17431045013364</v>
+        <v>46.17431045013366</v>
       </c>
       <c r="S18" t="n">
-        <v>13.81380367026814</v>
+        <v>13.81380367026815</v>
       </c>
       <c r="T18" t="n">
-        <v>2.997611705543429</v>
+        <v>2.99761170554343</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04892728572704187</v>
+        <v>0.04892728572704189</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6234886902484238</v>
+        <v>0.6234886902484241</v>
       </c>
       <c r="H19" t="n">
-        <v>5.543381264208718</v>
+        <v>5.543381264208721</v>
       </c>
       <c r="I19" t="n">
-        <v>18.75000533947079</v>
+        <v>18.7500053394708</v>
       </c>
       <c r="J19" t="n">
-        <v>44.08065040056356</v>
+        <v>44.08065040056358</v>
       </c>
       <c r="K19" t="n">
-        <v>72.43804964886232</v>
+        <v>72.43804964886235</v>
       </c>
       <c r="L19" t="n">
-        <v>92.69576400293387</v>
+        <v>92.69576400293391</v>
       </c>
       <c r="M19" t="n">
-        <v>97.73468623594155</v>
+        <v>97.7346862359416</v>
       </c>
       <c r="N19" t="n">
-        <v>95.41077384501568</v>
+        <v>95.41077384501574</v>
       </c>
       <c r="O19" t="n">
-        <v>88.12729232711361</v>
+        <v>88.12729232711365</v>
       </c>
       <c r="P19" t="n">
-        <v>75.4081230460457</v>
+        <v>75.40812304604574</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.20867568980211</v>
+        <v>52.20867568980213</v>
       </c>
       <c r="R19" t="n">
-        <v>28.03431874517003</v>
+        <v>28.03431874517005</v>
       </c>
       <c r="S19" t="n">
         <v>10.86570744732935</v>
       </c>
       <c r="T19" t="n">
-        <v>2.663997131061447</v>
+        <v>2.663997131061448</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03400847401355043</v>
+        <v>0.03400847401355045</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,40 +32469,40 @@
         <v>14.23493893063159</v>
       </c>
       <c r="I20" t="n">
-        <v>53.58647461229582</v>
+        <v>53.58647461229585</v>
       </c>
       <c r="J20" t="n">
-        <v>117.971209380075</v>
+        <v>117.9712093800751</v>
       </c>
       <c r="K20" t="n">
-        <v>176.8082619794779</v>
+        <v>176.808261979478</v>
       </c>
       <c r="L20" t="n">
-        <v>219.3462834415374</v>
+        <v>219.3462834415375</v>
       </c>
       <c r="M20" t="n">
-        <v>244.0650038328587</v>
+        <v>244.0650038328588</v>
       </c>
       <c r="N20" t="n">
-        <v>248.01423075698</v>
+        <v>248.0142307569801</v>
       </c>
       <c r="O20" t="n">
-        <v>234.1928052482318</v>
+        <v>234.1928052482319</v>
       </c>
       <c r="P20" t="n">
-        <v>199.8781410373232</v>
+        <v>199.8781410373233</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.1001597896001</v>
+        <v>150.1001597896002</v>
       </c>
       <c r="R20" t="n">
-        <v>87.31214281472349</v>
+        <v>87.31214281472353</v>
       </c>
       <c r="S20" t="n">
-        <v>31.67373815518296</v>
+        <v>31.67373815518297</v>
       </c>
       <c r="T20" t="n">
-        <v>6.084554636283635</v>
+        <v>6.084554636283638</v>
       </c>
       <c r="U20" t="n">
         <v>0.1111968865568682</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.743694743051036</v>
+        <v>0.7436947430510363</v>
       </c>
       <c r="H21" t="n">
-        <v>7.182525544729744</v>
+        <v>7.182525544729748</v>
       </c>
       <c r="I21" t="n">
-        <v>25.60527953048523</v>
+        <v>25.60527953048525</v>
       </c>
       <c r="J21" t="n">
-        <v>70.26284412308057</v>
+        <v>70.2628441230806</v>
       </c>
       <c r="K21" t="n">
         <v>120.0903919075</v>
       </c>
       <c r="L21" t="n">
-        <v>161.4763519944804</v>
+        <v>161.4763519944805</v>
       </c>
       <c r="M21" t="n">
         <v>188.4352864300805</v>
       </c>
       <c r="N21" t="n">
-        <v>193.4226077551903</v>
+        <v>193.4226077551904</v>
       </c>
       <c r="O21" t="n">
-        <v>176.9438979223226</v>
+        <v>176.9438979223227</v>
       </c>
       <c r="P21" t="n">
-        <v>142.0130777322632</v>
+        <v>142.0130777322633</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.93198158665506</v>
+        <v>94.93198158665511</v>
       </c>
       <c r="R21" t="n">
-        <v>46.17431045013364</v>
+        <v>46.17431045013366</v>
       </c>
       <c r="S21" t="n">
-        <v>13.81380367026814</v>
+        <v>13.81380367026815</v>
       </c>
       <c r="T21" t="n">
-        <v>2.997611705543429</v>
+        <v>2.99761170554343</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04892728572704187</v>
+        <v>0.04892728572704189</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6234886902484238</v>
+        <v>0.6234886902484241</v>
       </c>
       <c r="H22" t="n">
-        <v>5.543381264208718</v>
+        <v>5.543381264208721</v>
       </c>
       <c r="I22" t="n">
-        <v>18.75000533947079</v>
+        <v>18.7500053394708</v>
       </c>
       <c r="J22" t="n">
-        <v>44.08065040056356</v>
+        <v>44.08065040056358</v>
       </c>
       <c r="K22" t="n">
-        <v>72.43804964886232</v>
+        <v>72.43804964886235</v>
       </c>
       <c r="L22" t="n">
-        <v>92.69576400293387</v>
+        <v>92.69576400293391</v>
       </c>
       <c r="M22" t="n">
-        <v>97.73468623594155</v>
+        <v>97.7346862359416</v>
       </c>
       <c r="N22" t="n">
-        <v>95.41077384501568</v>
+        <v>95.41077384501574</v>
       </c>
       <c r="O22" t="n">
-        <v>88.12729232711361</v>
+        <v>88.12729232711365</v>
       </c>
       <c r="P22" t="n">
-        <v>75.4081230460457</v>
+        <v>75.40812304604574</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.20867568980211</v>
+        <v>52.20867568980213</v>
       </c>
       <c r="R22" t="n">
-        <v>28.03431874517003</v>
+        <v>28.03431874517005</v>
       </c>
       <c r="S22" t="n">
         <v>10.86570744732935</v>
       </c>
       <c r="T22" t="n">
-        <v>2.663997131061447</v>
+        <v>2.663997131061448</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03400847401355043</v>
+        <v>0.03400847401355045</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34152,7 +34152,7 @@
         <v>318.8720964755372</v>
       </c>
       <c r="Q41" t="n">
-        <v>239.4596646988303</v>
+        <v>239.4596646988302</v>
       </c>
       <c r="R41" t="n">
         <v>139.2918999677087</v>
@@ -34389,10 +34389,10 @@
         <v>318.8720964755372</v>
       </c>
       <c r="Q44" t="n">
-        <v>239.4596646988303</v>
+        <v>239.4596646988302</v>
       </c>
       <c r="R44" t="n">
-        <v>139.2918999677088</v>
+        <v>139.2918999677087</v>
       </c>
       <c r="S44" t="n">
         <v>50.53014419858177</v>
@@ -34704,7 +34704,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.480943952691575</v>
+        <v>6.48094395269159</v>
       </c>
       <c r="M2" t="n">
         <v>20.16697784598549</v>
@@ -34713,7 +34713,7 @@
         <v>20.16697784598549</v>
       </c>
       <c r="O2" t="n">
-        <v>15.67819014434951</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>7.594920130475804</v>
+        <v>7.594920130475775</v>
       </c>
       <c r="M3" t="n">
         <v>20.16697784598549</v>
@@ -34795,7 +34795,7 @@
         <v>20.16697784598549</v>
       </c>
       <c r="P3" t="n">
-        <v>11.75723032779311</v>
+        <v>11.75723032779312</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>7.887576079841978</v>
+        <v>7.887576079841679</v>
       </c>
       <c r="L5" t="n">
-        <v>24.88141089975161</v>
+        <v>24.88141089975123</v>
       </c>
       <c r="M5" t="n">
-        <v>40.64104271500598</v>
+        <v>40.64104271500555</v>
       </c>
       <c r="N5" t="n">
-        <v>42.15723525158589</v>
+        <v>42.15723525158528</v>
       </c>
       <c r="O5" t="n">
-        <v>35.32409845242397</v>
+        <v>35.32409845242357</v>
       </c>
       <c r="P5" t="n">
-        <v>16.03425497130644</v>
+        <v>16.0342549713061</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>10.07411318889475</v>
+        <v>10.07411318889454</v>
       </c>
       <c r="L6" t="n">
-        <v>32.49601887781704</v>
+        <v>32.49601887781677</v>
       </c>
       <c r="M6" t="n">
-        <v>42.15723525158589</v>
+        <v>19.18094536325431</v>
       </c>
       <c r="N6" t="n">
-        <v>19.18094536325507</v>
+        <v>42.15723525158528</v>
       </c>
       <c r="O6" t="n">
-        <v>39.34691730809148</v>
+        <v>39.34691730809119</v>
       </c>
       <c r="P6" t="n">
-        <v>23.67038838027159</v>
+        <v>23.67038838027133</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35105,7 +35105,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6442497541228747</v>
+        <v>0.6442497541227112</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>35.50644430435783</v>
       </c>
       <c r="M8" t="n">
-        <v>52.4634396023945</v>
+        <v>52.46343960239447</v>
       </c>
       <c r="N8" t="n">
         <v>55.19981996806668</v>
@@ -35190,7 +35190,7 @@
         <v>46.66829056655256</v>
       </c>
       <c r="P8" t="n">
-        <v>25.71626048355479</v>
+        <v>25.71626048355478</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>44.64761804676709</v>
+        <v>44.64761804676714</v>
       </c>
       <c r="K11" t="n">
-        <v>87.67187230626085</v>
+        <v>87.67187230626091</v>
       </c>
       <c r="L11" t="n">
         <v>123.8608853786927</v>
       </c>
       <c r="M11" t="n">
-        <v>150.7747793758133</v>
+        <v>150.7747793758134</v>
       </c>
       <c r="N11" t="n">
-        <v>155.1019400003607</v>
+        <v>155.1019400003608</v>
       </c>
       <c r="O11" t="n">
-        <v>141.0030296224487</v>
+        <v>141.0030296224488</v>
       </c>
       <c r="P11" t="n">
         <v>106.2287777564391</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.06635539044811</v>
+        <v>60.06635539044817</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>18.89360532308057</v>
+        <v>18.89360532308059</v>
       </c>
       <c r="K12" t="n">
-        <v>64.26460912288459</v>
+        <v>64.26460912288465</v>
       </c>
       <c r="L12" t="n">
-        <v>105.3618281836314</v>
+        <v>105.3618281836315</v>
       </c>
       <c r="M12" t="n">
         <v>130.8710026916631</v>
       </c>
       <c r="N12" t="n">
-        <v>140.2292143614403</v>
+        <v>140.2292143614404</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1924189223226</v>
+        <v>119.1924189223227</v>
       </c>
       <c r="P12" t="n">
-        <v>87.75344272945946</v>
+        <v>87.75344272945952</v>
       </c>
       <c r="Q12" t="n">
-        <v>38.23936308181635</v>
+        <v>38.23936308181639</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>20.18768008979551</v>
+        <v>20.18768008979552</v>
       </c>
       <c r="L13" t="n">
-        <v>38.06747010903238</v>
+        <v>38.06747010903241</v>
       </c>
       <c r="M13" t="n">
-        <v>41.46974373716152</v>
+        <v>41.46974373716155</v>
       </c>
       <c r="N13" t="n">
-        <v>43.69812833659626</v>
+        <v>43.6981283365963</v>
       </c>
       <c r="O13" t="n">
-        <v>32.0523942541173</v>
+        <v>32.05239425411732</v>
       </c>
       <c r="P13" t="n">
-        <v>19.62828140614094</v>
+        <v>19.62828140614096</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>44.64761804676709</v>
+        <v>44.64761804676714</v>
       </c>
       <c r="K14" t="n">
-        <v>87.67187230626085</v>
+        <v>87.67187230626091</v>
       </c>
       <c r="L14" t="n">
         <v>123.8608853786927</v>
       </c>
       <c r="M14" t="n">
-        <v>150.7747793758133</v>
+        <v>150.7747793758134</v>
       </c>
       <c r="N14" t="n">
-        <v>155.1019400003607</v>
+        <v>155.1019400003608</v>
       </c>
       <c r="O14" t="n">
-        <v>141.0030296224487</v>
+        <v>141.0030296224488</v>
       </c>
       <c r="P14" t="n">
         <v>106.2287777564391</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.06635539044811</v>
+        <v>60.06635539044817</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>18.89360532308057</v>
+        <v>18.89360532308059</v>
       </c>
       <c r="K15" t="n">
-        <v>64.26460912288459</v>
+        <v>64.26460912288465</v>
       </c>
       <c r="L15" t="n">
-        <v>105.3618281836314</v>
+        <v>105.3618281836315</v>
       </c>
       <c r="M15" t="n">
         <v>130.8710026916631</v>
       </c>
       <c r="N15" t="n">
-        <v>140.2292143614403</v>
+        <v>140.2292143614404</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1924189223226</v>
+        <v>119.1924189223227</v>
       </c>
       <c r="P15" t="n">
-        <v>87.75344272945946</v>
+        <v>87.75344272945952</v>
       </c>
       <c r="Q15" t="n">
-        <v>38.23936308181635</v>
+        <v>38.23936308181639</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>20.18768008979551</v>
+        <v>20.18768008979552</v>
       </c>
       <c r="L16" t="n">
-        <v>38.06747010903238</v>
+        <v>38.06747010903241</v>
       </c>
       <c r="M16" t="n">
-        <v>41.46974373716152</v>
+        <v>41.46974373716155</v>
       </c>
       <c r="N16" t="n">
-        <v>43.69812833659626</v>
+        <v>43.6981283365963</v>
       </c>
       <c r="O16" t="n">
-        <v>32.0523942541173</v>
+        <v>32.05239425411732</v>
       </c>
       <c r="P16" t="n">
-        <v>19.62828140614094</v>
+        <v>19.62828140614096</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>44.64761804676708</v>
+        <v>44.64761804676714</v>
       </c>
       <c r="K17" t="n">
-        <v>87.67187230626082</v>
+        <v>87.67187230626091</v>
       </c>
       <c r="L17" t="n">
-        <v>123.8608853786926</v>
+        <v>123.8608853786927</v>
       </c>
       <c r="M17" t="n">
-        <v>150.7747793758133</v>
+        <v>150.7747793758134</v>
       </c>
       <c r="N17" t="n">
-        <v>155.1019400003607</v>
+        <v>155.1019400003608</v>
       </c>
       <c r="O17" t="n">
-        <v>141.0030296224487</v>
+        <v>141.0030296224488</v>
       </c>
       <c r="P17" t="n">
         <v>106.2287777564391</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.06635539044808</v>
+        <v>60.06635539044817</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>18.89360532308056</v>
+        <v>18.89360532308059</v>
       </c>
       <c r="K18" t="n">
-        <v>64.26460912288459</v>
+        <v>64.26460912288465</v>
       </c>
       <c r="L18" t="n">
-        <v>105.3618281836314</v>
+        <v>105.3618281836315</v>
       </c>
       <c r="M18" t="n">
-        <v>130.871002691663</v>
+        <v>130.8710026916631</v>
       </c>
       <c r="N18" t="n">
-        <v>140.2292143614403</v>
+        <v>140.2292143614404</v>
       </c>
       <c r="O18" t="n">
-        <v>119.1924189223226</v>
+        <v>119.1924189223227</v>
       </c>
       <c r="P18" t="n">
-        <v>87.75344272945944</v>
+        <v>87.75344272945952</v>
       </c>
       <c r="Q18" t="n">
-        <v>38.23936308181634</v>
+        <v>38.23936308181639</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>20.18768008979549</v>
+        <v>20.18768008979552</v>
       </c>
       <c r="L19" t="n">
-        <v>38.06747010903236</v>
+        <v>38.06747010903241</v>
       </c>
       <c r="M19" t="n">
-        <v>41.46974373716151</v>
+        <v>41.46974373716155</v>
       </c>
       <c r="N19" t="n">
-        <v>43.69812833659624</v>
+        <v>43.6981283365963</v>
       </c>
       <c r="O19" t="n">
-        <v>32.05239425411728</v>
+        <v>32.05239425411732</v>
       </c>
       <c r="P19" t="n">
-        <v>19.62828140614092</v>
+        <v>19.62828140614096</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>44.64761804676708</v>
+        <v>44.64761804676714</v>
       </c>
       <c r="K20" t="n">
-        <v>87.67187230626082</v>
+        <v>87.67187230626091</v>
       </c>
       <c r="L20" t="n">
-        <v>123.8608853786926</v>
+        <v>123.8608853786927</v>
       </c>
       <c r="M20" t="n">
-        <v>150.7747793758133</v>
+        <v>150.7747793758134</v>
       </c>
       <c r="N20" t="n">
-        <v>155.1019400003607</v>
+        <v>155.1019400003608</v>
       </c>
       <c r="O20" t="n">
-        <v>141.0030296224487</v>
+        <v>141.0030296224488</v>
       </c>
       <c r="P20" t="n">
         <v>106.2287777564391</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.06635539044808</v>
+        <v>60.06635539044817</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>18.89360532308056</v>
+        <v>18.89360532308059</v>
       </c>
       <c r="K21" t="n">
-        <v>64.26460912288459</v>
+        <v>64.26460912288465</v>
       </c>
       <c r="L21" t="n">
-        <v>105.3618281836314</v>
+        <v>105.3618281836315</v>
       </c>
       <c r="M21" t="n">
-        <v>130.871002691663</v>
+        <v>130.8710026916631</v>
       </c>
       <c r="N21" t="n">
-        <v>140.2292143614403</v>
+        <v>140.2292143614404</v>
       </c>
       <c r="O21" t="n">
-        <v>119.1924189223226</v>
+        <v>119.1924189223227</v>
       </c>
       <c r="P21" t="n">
-        <v>87.75344272945944</v>
+        <v>87.75344272945952</v>
       </c>
       <c r="Q21" t="n">
-        <v>38.23936308181634</v>
+        <v>38.23936308181639</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>20.18768008979549</v>
+        <v>20.18768008979552</v>
       </c>
       <c r="L22" t="n">
-        <v>38.06747010903236</v>
+        <v>38.06747010903241</v>
       </c>
       <c r="M22" t="n">
-        <v>41.46974373716151</v>
+        <v>41.46974373716155</v>
       </c>
       <c r="N22" t="n">
-        <v>43.69812833659624</v>
+        <v>43.6981283365963</v>
       </c>
       <c r="O22" t="n">
-        <v>32.05239425411728</v>
+        <v>32.05239425411732</v>
       </c>
       <c r="P22" t="n">
-        <v>19.62828140614092</v>
+        <v>19.62828140614096</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>225.222733194653</v>
       </c>
       <c r="Q41" t="n">
-        <v>149.4258602996782</v>
+        <v>149.4258602996781</v>
       </c>
       <c r="R41" t="n">
         <v>51.97975715298516</v>
@@ -38037,10 +38037,10 @@
         <v>225.222733194653</v>
       </c>
       <c r="Q44" t="n">
-        <v>149.4258602996782</v>
+        <v>149.4258602996781</v>
       </c>
       <c r="R44" t="n">
-        <v>51.97975715298531</v>
+        <v>51.97975715298516</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
